--- a/planilha_auxiliar.xlsx
+++ b/planilha_auxiliar.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dpudef-my.sharepoint.com/personal/eduardo_junior_dpu_def_br/Documents/Códigos/Orçamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02C9326C-AC33-40B5-BFCD-E8E11BB02F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{02C9326C-AC33-40B5-BFCD-E8E11BB02F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C594F79-074E-46AB-97E3-F4C713163F31}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="532">
   <si>
     <t>CONTRATO</t>
   </si>
@@ -208,81 +211,81 @@
 ALTAMIRA</t>
   </si>
   <si>
+    <t>VIGILÂNCIA PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>0035/2022</t>
+  </si>
+  <si>
+    <t>RIO BRANCO</t>
+  </si>
+  <si>
+    <t>MANAUS</t>
+  </si>
+  <si>
+    <t>ALTAMIRA</t>
+  </si>
+  <si>
+    <t>PORTO VELHO</t>
+  </si>
+  <si>
+    <t>BOA VISTA</t>
+  </si>
+  <si>
+    <t>Valor Repactuado</t>
+  </si>
+  <si>
+    <t>0158/2022</t>
+  </si>
+  <si>
+    <t>0085/2025</t>
+  </si>
+  <si>
+    <t>0067/2022</t>
+  </si>
+  <si>
+    <t>BELÉM</t>
+  </si>
+  <si>
+    <t>0062/2022</t>
+  </si>
+  <si>
+    <t>0053/2025</t>
+  </si>
+  <si>
+    <t>0078/2025</t>
+  </si>
+  <si>
+    <t>0181/2022</t>
+  </si>
+  <si>
+    <t>0063/2022</t>
+  </si>
+  <si>
+    <t>0021/2024</t>
+  </si>
+  <si>
+    <t>Solicitado Repactuação 2025</t>
+  </si>
+  <si>
+    <t>0086/2023</t>
+  </si>
+  <si>
+    <t>0112/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACAPÁ  </t>
+  </si>
+  <si>
     <t xml:space="preserve">VIGILÂNCIA PATRIMONIAL </t>
   </si>
   <si>
-    <t>0035/2022</t>
-  </si>
-  <si>
-    <t>RIO BRANCO</t>
-  </si>
-  <si>
-    <t>MANAUS</t>
-  </si>
-  <si>
-    <t>ALTAMIRA</t>
-  </si>
-  <si>
-    <t>PORTO VELHO</t>
-  </si>
-  <si>
-    <t>BOA VISTA</t>
-  </si>
-  <si>
-    <t>Valor Repactuado</t>
-  </si>
-  <si>
-    <t>0158/2022</t>
-  </si>
-  <si>
-    <t>0085/2025</t>
-  </si>
-  <si>
-    <t>0067/2022</t>
-  </si>
-  <si>
-    <t>BELÉM</t>
-  </si>
-  <si>
-    <t>0062/2022</t>
-  </si>
-  <si>
-    <t>0053/2025</t>
-  </si>
-  <si>
-    <t>0078/2025</t>
-  </si>
-  <si>
-    <t>0181/2022</t>
-  </si>
-  <si>
-    <t>0063/2022</t>
-  </si>
-  <si>
-    <t>0021/2024</t>
-  </si>
-  <si>
-    <t>Solicitado Repactuação 2025</t>
-  </si>
-  <si>
-    <t>0086/2023</t>
-  </si>
-  <si>
-    <t>0112/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACAPÁ  </t>
-  </si>
-  <si>
     <t>0034/2022</t>
   </si>
   <si>
     <t>MACAPÁ</t>
   </si>
   <si>
-    <t>5004/2024</t>
-  </si>
-  <si>
     <t>6001/2025</t>
   </si>
   <si>
@@ -350,9 +353,6 @@
   </si>
   <si>
     <t>0152/2021</t>
-  </si>
-  <si>
-    <t>VIGILÂNCIA PATRIMONIAL</t>
   </si>
   <si>
     <t>0064/2022</t>
@@ -486,6 +486,9 @@
     <t>0186/2022</t>
   </si>
   <si>
+    <t xml:space="preserve">VITÓRIA DA CONQUISTA </t>
+  </si>
+  <si>
     <t>0032/2022</t>
   </si>
   <si>
@@ -695,6 +698,28 @@
   </si>
   <si>
     <t>0081/2023</t>
+  </si>
+  <si>
+    <t>ARACAJU
+ARAPIRACA
+CARUARU
+FEIRA DE SANTANA
+MACEIÓ
+PETROLINA/PE E JUAZEIRO/BA
+RECIFE
+SALVADOR
+VITÓRIA DA CONQUISTA
+CAMPINA GRANDE
+FORTALEZA
+JOÃO PESSOA
+MOSSORÓ
+NATAL
+SÃO LUIZ
+SOBRAL
+TERESINA</t>
+  </si>
+  <si>
+    <t>LOCAÇÃO DE VEÍCULOS – VANS EXECUTIVAS E CAMINHONETES COM TRAÇÃO 4X4 - POR DIÁRIA - COM MOTORISTA</t>
   </si>
   <si>
     <t xml:space="preserve">ARACAJU
@@ -717,9 +742,6 @@
 </t>
   </si>
   <si>
-    <t>LOCAÇÃO DE VEÍCULOS – VANS EXECUTIVAS E CAMINHONETES COM TRAÇÃO 4X4 - POR DIÁRIA - COM MOTORISTA</t>
-  </si>
-  <si>
     <t>0149/2022</t>
   </si>
   <si>
@@ -1081,13 +1103,6 @@
     <t>solicitado reajuste 2025</t>
   </si>
   <si>
-    <t>RIBEIRÃO PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAÇÃO DE IMÓVEL
-IMÓVEL COMPARTILHADO </t>
-  </si>
-  <si>
     <t>5000/2023</t>
   </si>
   <si>
@@ -1580,13 +1595,6 @@
   </si>
   <si>
     <t>0160/2025</t>
-  </si>
-  <si>
-    <t>0014/2025</t>
-  </si>
-  <si>
-    <t>LOCAÇÃO DE IMÓVEL
-COMPARTILIAMENTO COM MPT</t>
   </si>
   <si>
     <t>0143/2025</t>
@@ -1720,7 +1728,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1913,6 +1921,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1940,7 +1956,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2048,12 +2064,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2232,6 +2261,12 @@
     <xf numFmtId="164" fontId="28" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2349,6 +2384,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Planilha2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2640,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E301" sqref="E301"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3118,7 +3166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="13" t="s">
         <v>45</v>
       </c>
@@ -3131,8 +3179,8 @@
       <c r="E23" s="4">
         <v>45658</v>
       </c>
-      <c r="F23" s="50">
-        <v>56.237499999999997</v>
+      <c r="F23" s="49">
+        <v>383.01</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>12</v>
@@ -3281,7 +3329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="36">
+    <row r="31" spans="1:7" ht="32.25">
       <c r="A31" s="14" t="s">
         <v>54</v>
       </c>
@@ -4123,7 +4171,7 @@
       <c r="C71" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E71" s="4">
+      <c r="D71" s="4">
         <v>45891</v>
       </c>
       <c r="G71" s="10" t="s">
@@ -4158,7 +4206,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E73" s="4">
         <v>45823</v>
@@ -4172,10 +4220,10 @@
     </row>
     <row r="74" spans="1:7" ht="21.75">
       <c r="A74" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>22</v>
@@ -4190,24 +4238,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="14.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>32</v>
+      <c r="C75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E75" s="4">
         <v>45658</v>
       </c>
-      <c r="F75" s="49">
-        <v>475.47</v>
+      <c r="F75" s="51">
+        <v>5102.62</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4215,100 +4263,100 @@
         <v>81</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E76" s="4">
-        <v>45658</v>
+        <v>45938</v>
       </c>
       <c r="F76" s="51">
         <v>5102.62</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E77" s="4">
-        <v>45938</v>
-      </c>
-      <c r="F77" s="51">
-        <v>5102.62</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="4">
         <v>45756</v>
       </c>
-      <c r="F78">
+      <c r="F77">
         <f>46148.04/12</f>
         <v>3845.67</v>
       </c>
+      <c r="G77" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.25">
+      <c r="A78" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F78" s="49">
+        <v>407.36</v>
+      </c>
       <c r="G78" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14.25">
+    <row r="79" spans="1:7" ht="21.75">
       <c r="A79" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>32</v>
+      <c r="C79" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="E79" s="4">
         <v>45658</v>
       </c>
-      <c r="F79" s="49">
-        <v>407.36</v>
+      <c r="F79" s="69">
+        <v>20468.21</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="21.75">
+    <row r="80" spans="1:7" ht="15.75">
       <c r="A80" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C80" s="18" t="s">
-        <v>22</v>
+      <c r="C80" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E80" s="4">
         <v>45658</v>
       </c>
-      <c r="F80" s="69">
-        <v>20468.21</v>
+      <c r="F80" s="46">
+        <v>8952.8799999999992</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75">
@@ -4322,138 +4370,138 @@
         <v>38</v>
       </c>
       <c r="E81" s="4">
-        <v>45658</v>
+        <v>45659</v>
       </c>
       <c r="F81" s="46">
-        <v>8952.8799999999992</v>
+        <v>10101.89</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>38</v>
+      <c r="C82" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="E82" s="4">
-        <v>45659</v>
-      </c>
-      <c r="F82" s="46">
-        <v>10101.89</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E83" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F83">
+        <v>45658</v>
+      </c>
+      <c r="F82">
         <f>67179.14/12</f>
         <v>5598.2616666666663</v>
       </c>
+      <c r="G82" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="24">
+      <c r="A83" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F83">
+        <v>4205</v>
+      </c>
       <c r="G83" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="24">
       <c r="A84" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="4">
         <v>45658</v>
       </c>
       <c r="F84">
-        <v>4205</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="24">
-      <c r="A85" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F85">
         <f>27400/12</f>
         <v>2283.3333333333335</v>
       </c>
+      <c r="G84" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.25">
+      <c r="A85" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F85" s="49">
+        <v>3152.06</v>
+      </c>
       <c r="G85" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.25">
+    <row r="86" spans="1:7" ht="21.75">
       <c r="A86" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>32</v>
+      <c r="C86" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="E86" s="4">
         <v>45658</v>
       </c>
       <c r="F86" s="49">
-        <v>3152.06</v>
+        <v>6690.42</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="21.75">
+    <row r="87" spans="1:7">
       <c r="A87" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="23" t="s">
-        <v>22</v>
+      <c r="C87" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="E87" s="4">
         <v>45658</v>
       </c>
-      <c r="F87" s="49">
-        <v>6690.42</v>
+      <c r="F87">
+        <v>10059.77</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75">
       <c r="A88" s="13" t="s">
         <v>96</v>
       </c>
@@ -4464,111 +4512,111 @@
         <v>38</v>
       </c>
       <c r="E88" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F88">
-        <v>10059.77</v>
+        <v>45717</v>
+      </c>
+      <c r="F88" s="57">
+        <v>10957.6</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="24" t="s">
-        <v>38</v>
+      <c r="C89" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="E89" s="4">
-        <v>45717</v>
-      </c>
-      <c r="F89" s="57">
-        <v>10957.6</v>
+        <v>45658</v>
+      </c>
+      <c r="F89">
+        <f>31458/12</f>
+        <v>2621.5</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="36">
       <c r="A90" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E90" s="4">
         <v>45658</v>
       </c>
       <c r="F90">
-        <f>31458/12</f>
-        <v>2621.5</v>
+        <v>500</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="36">
+    <row r="91" spans="1:7" ht="24">
       <c r="A91" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="18" t="s">
-        <v>99</v>
+      <c r="C91" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E91" s="4">
         <v>45658</v>
       </c>
-      <c r="F91">
-        <v>500</v>
+      <c r="F91" s="45">
+        <v>14653.96</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="21.75">
       <c r="A92" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E92" s="4">
         <v>45658</v>
       </c>
-      <c r="F92" s="45">
-        <v>14653.96</v>
+      <c r="F92" s="49">
+        <v>11157.73</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="21.75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75">
       <c r="A93" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B93" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E93" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F93" s="49">
-        <v>11157.73</v>
+        <v>45719</v>
+      </c>
+      <c r="F93" s="46">
+        <v>5166.66</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>12</v>
@@ -4584,32 +4632,32 @@
       <c r="C94" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E94" s="4">
-        <v>45719</v>
-      </c>
-      <c r="F94" s="46">
-        <v>5166.66</v>
-      </c>
+      <c r="D94" s="4">
+        <v>45843</v>
+      </c>
+      <c r="F94" s="46"/>
       <c r="G94" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D95" s="4">
-        <v>45843</v>
-      </c>
-      <c r="F95" s="46"/>
+        <v>56</v>
+      </c>
+      <c r="E95" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F95" s="51">
+        <v>25138.57</v>
+      </c>
       <c r="G95" s="10" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4620,53 +4668,53 @@
         <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F96" s="51">
+        <v>27060.21</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="21.75">
+      <c r="A97" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E96" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F96" s="51">
-        <v>25138.57</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>104</v>
+      <c r="B97" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="E97" s="4">
-        <v>45717</v>
-      </c>
-      <c r="F97" s="51">
-        <v>27060.21</v>
+        <v>45658</v>
+      </c>
+      <c r="F97" s="69">
+        <v>8911.19</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="21.75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="24">
       <c r="A98" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>22</v>
+      <c r="C98" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E98" s="4">
         <v>45658</v>
       </c>
-      <c r="F98" s="69">
-        <v>8911.19</v>
+      <c r="F98" s="45">
+        <v>11595.06</v>
       </c>
       <c r="G98" s="10" t="s">
         <v>12</v>
@@ -4674,7 +4722,7 @@
     </row>
     <row r="99" spans="1:7" ht="24">
       <c r="A99" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>58</v>
@@ -4683,18 +4731,18 @@
         <v>44</v>
       </c>
       <c r="E99" s="4">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="F99" s="45">
-        <v>11595.06</v>
+        <v>12377.27</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="24">
       <c r="A100" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>58</v>
@@ -4703,90 +4751,91 @@
         <v>44</v>
       </c>
       <c r="E100" s="4">
-        <v>45717</v>
+        <v>45826</v>
       </c>
       <c r="F100" s="45">
-        <v>12377.27</v>
+        <v>12419.32</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>44</v>
+      <c r="B101" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="E101" s="4">
-        <v>45826</v>
-      </c>
-      <c r="F101" s="45">
-        <v>12419.32</v>
+        <v>45658</v>
+      </c>
+      <c r="F101" s="49">
+        <v>260.95999999999998</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="14.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="21.75">
       <c r="A102" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="C102" s="18" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E102" s="4">
         <v>45658</v>
       </c>
       <c r="F102" s="49">
-        <v>260.95999999999998</v>
+        <v>12600.35</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="21.75">
-      <c r="A103" s="13" t="s">
+    <row r="103" spans="1:7">
+      <c r="A103" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>22</v>
+        <v>107</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="E103" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F103" s="49">
-        <v>12600.35</v>
+        <v>45762</v>
+      </c>
+      <c r="F103" s="45">
+        <v>3966</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>38</v>
+        <v>107</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="E104" s="4">
-        <v>45762</v>
-      </c>
-      <c r="F104" s="45">
-        <v>3966</v>
+        <v>45658</v>
+      </c>
+      <c r="F104">
+        <f>25452/12</f>
+        <v>2121</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>12</v>
@@ -4794,58 +4843,57 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E105" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F105">
-        <f>25452/12</f>
-        <v>2121</v>
-      </c>
+      <c r="D105" s="4">
+        <v>45922</v>
+      </c>
+      <c r="E105" s="4"/>
       <c r="G105" s="10" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D106" s="4">
-        <v>45922</v>
-      </c>
-      <c r="E106" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="4">
+        <v>45770</v>
+      </c>
+      <c r="F106" s="52">
+        <v>11499.44</v>
+      </c>
       <c r="G106" s="10" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E107" s="4">
         <v>45770</v>
       </c>
       <c r="F107" s="52">
-        <v>11499.44</v>
+        <v>5738.8</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>12</v>
@@ -4853,19 +4901,19 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E108" s="4">
         <v>45770</v>
       </c>
       <c r="F108" s="52">
-        <v>5738.8</v>
+        <v>11423.76</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>12</v>
@@ -4873,302 +4921,303 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E109" s="4">
-        <v>45770</v>
+        <v>45897</v>
       </c>
       <c r="F109" s="52">
-        <v>11423.76</v>
+        <v>5717.52</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="84.75">
+      <c r="A110" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="E110" s="4">
-        <v>45897</v>
-      </c>
-      <c r="F110" s="52">
-        <v>5717.52</v>
+        <v>45292</v>
+      </c>
+      <c r="F110" s="49">
+        <f>79958.1+48914.28/12*3</f>
+        <v>92186.670000000013</v>
       </c>
       <c r="G110" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="14.25">
+      <c r="A111" s="25" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="84.75">
-      <c r="A111" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="B111" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E111" s="4">
-        <v>45292</v>
+        <v>45863</v>
       </c>
       <c r="F111" s="49">
-        <f>79958.1+48914.28/12*3</f>
-        <v>92186.670000000013</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="14.25">
-      <c r="A112" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E112" s="4">
-        <v>45863</v>
-      </c>
-      <c r="F112" s="49">
         <f>68590.53+39780.36/12*3</f>
         <v>78535.62</v>
       </c>
+      <c r="G111" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="14.25">
+      <c r="A112" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" s="4">
+        <v>45813</v>
+      </c>
+      <c r="F112" s="70">
+        <v>344.58</v>
+      </c>
       <c r="G112" s="10" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E113" s="4">
-        <v>45813</v>
-      </c>
-      <c r="F113" s="70">
-        <v>344.58</v>
+        <v>45658</v>
+      </c>
+      <c r="F113" s="49">
+        <v>1037.83</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="14.25">
+    <row r="114" spans="1:7" ht="21.75">
       <c r="A114" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E114" s="4">
         <v>45658</v>
       </c>
       <c r="F114" s="49">
-        <v>1037.83</v>
+        <v>11558.4</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="21.75">
+    <row r="115" spans="1:7">
       <c r="A115" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E115" s="4">
         <v>45658</v>
       </c>
-      <c r="F115" s="49">
-        <v>11558.4</v>
+      <c r="F115" s="52">
+        <v>4874.16</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="21.75">
       <c r="A116" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>38</v>
+        <v>122</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="E116" s="4">
         <v>45658</v>
       </c>
-      <c r="F116" s="52">
-        <v>4874.16</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="21.75">
+      <c r="F116">
+        <f>9747.71+9908.47+3313.45+33358.77+883.31+4315.23+3802.43+582.87</f>
+        <v>65912.239999999991</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="42.75">
       <c r="A117" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="E117" s="4">
         <v>45658</v>
       </c>
-      <c r="F117" s="48">
-        <v>67323.199999999997</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="F117">
+        <v>812.5</v>
+      </c>
+      <c r="G117" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="42.75">
       <c r="A118" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C118" s="19" t="s">
+      <c r="E118" s="4">
+        <v>45783</v>
+      </c>
+      <c r="F118">
+        <v>857.42</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E118" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F118">
-        <v>812.5</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="42.75">
-      <c r="A119" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="B119" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E119" s="4">
-        <v>45783</v>
+        <v>45658</v>
       </c>
       <c r="F119">
-        <v>857.42</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E120" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F120">
         <f>42525.75/12</f>
         <v>3543.8125</v>
       </c>
+      <c r="G119" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F120">
+        <v>1700</v>
+      </c>
       <c r="G120" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B121" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C121" s="19" t="s">
+    <row r="121" spans="1:7" ht="14.25">
+      <c r="A121" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="B121" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E121" s="4">
         <v>45658</v>
       </c>
-      <c r="F121">
-        <v>1700</v>
+      <c r="F121" s="49">
+        <v>375.04</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="14.25">
+    <row r="122" spans="1:7" ht="21.75">
       <c r="A122" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E122" s="4">
         <v>45658</v>
       </c>
       <c r="F122" s="49">
-        <v>375.04</v>
+        <v>4899.95</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="21.75">
+    <row r="123" spans="1:7">
       <c r="A123" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E123" s="4">
         <v>45658</v>
       </c>
-      <c r="F123" s="49">
-        <v>4899.95</v>
+      <c r="F123" s="52">
+        <v>5841.54</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>12</v>
@@ -5176,70 +5225,70 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E124" s="4">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="F124" s="52">
-        <v>5841.54</v>
+        <v>5868.38</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E125" s="4">
-        <v>45689</v>
-      </c>
-      <c r="F125" s="52">
-        <v>5868.38</v>
+        <v>45658</v>
+      </c>
+      <c r="F125" s="49">
+        <v>286.89</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E126" s="4">
-        <v>45658</v>
+        <v>45936</v>
       </c>
       <c r="F126" s="49">
         <v>286.89</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="21.75">
       <c r="A127" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>22</v>
@@ -5256,10 +5305,10 @@
     </row>
     <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>32</v>
@@ -5276,10 +5325,10 @@
     </row>
     <row r="129" spans="1:7" ht="21.75">
       <c r="A129" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>22</v>
@@ -5296,10 +5345,10 @@
     </row>
     <row r="130" spans="1:7" ht="15.75">
       <c r="A130" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>38</v>
@@ -5311,15 +5360,15 @@
         <v>3970.79</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>32</v>
@@ -5339,7 +5388,7 @@
         <v>146</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>22</v>
@@ -5359,7 +5408,7 @@
         <v>147</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>38</v>
@@ -5371,7 +5420,7 @@
         <v>3691.47</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="21.75">
@@ -5462,7 +5511,7 @@
         <v>149</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E138" s="4">
         <v>45658</v>
@@ -5591,7 +5640,7 @@
         <v>574.33583333333331</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="21.75">
@@ -5666,8 +5715,8 @@
       <c r="E148" s="4">
         <v>45658</v>
       </c>
-      <c r="F148" s="69">
-        <v>3671</v>
+      <c r="F148" s="72">
+        <v>3796.5524999999998</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>12</v>
@@ -5779,7 +5828,7 @@
         <v>170</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C154" s="18" t="s">
         <v>32</v>
@@ -5799,7 +5848,7 @@
         <v>171</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C155" s="18" t="s">
         <v>32</v>
@@ -5819,7 +5868,7 @@
         <v>172</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C156" s="18" t="s">
         <v>22</v>
@@ -5839,7 +5888,7 @@
         <v>173</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C157" s="18" t="s">
         <v>22</v>
@@ -5859,7 +5908,7 @@
         <v>174</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>38</v>
@@ -5879,7 +5928,7 @@
         <v>175</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>40</v>
@@ -5900,7 +5949,7 @@
         <v>176</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>177</v>
@@ -5921,7 +5970,7 @@
         <v>176</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>177</v>
@@ -6126,7 +6175,7 @@
         <v>185</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E171" s="4">
         <v>45658</v>
@@ -6143,7 +6192,7 @@
         <v>192</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>32</v>
@@ -6163,7 +6212,7 @@
         <v>193</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>22</v>
@@ -6183,7 +6232,7 @@
         <v>194</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>38</v>
@@ -6203,7 +6252,7 @@
         <v>194</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>38</v>
@@ -6223,7 +6272,7 @@
         <v>195</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>196</v>
@@ -6244,10 +6293,10 @@
         <v>197</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E177" s="4">
         <v>45658</v>
@@ -6264,10 +6313,10 @@
         <v>197</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E178" s="4">
         <v>45772</v>
@@ -6498,7 +6547,7 @@
         <v>5139.0200000000004</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6530,7 +6579,7 @@
         <v>209</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E191" s="4">
         <v>45658</v>
@@ -6563,7 +6612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="191.25">
+    <row r="193" spans="1:7" ht="180.75">
       <c r="A193" s="13" t="s">
         <v>215</v>
       </c>
@@ -6580,7 +6629,7 @@
         <v>19339.189999999999</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="191.25">
@@ -6588,7 +6637,7 @@
         <v>215</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>217</v>
@@ -6604,10 +6653,10 @@
     </row>
     <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>32</v>
@@ -6624,10 +6673,10 @@
     </row>
     <row r="196" spans="1:7" ht="21.75">
       <c r="A196" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>22</v>
@@ -6644,10 +6693,10 @@
     </row>
     <row r="197" spans="1:7" ht="15.75">
       <c r="A197" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>38</v>
@@ -6659,15 +6708,15 @@
         <v>4083.53</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>44</v>
@@ -6684,10 +6733,10 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>44</v>
@@ -6704,10 +6753,10 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>44</v>
@@ -6724,10 +6773,10 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>44</v>
@@ -6744,10 +6793,10 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>44</v>
@@ -6764,10 +6813,10 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>44</v>
@@ -6784,10 +6833,10 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C204" s="18" t="s">
         <v>32</v>
@@ -6804,10 +6853,10 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B205" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="B205" s="14" t="s">
-        <v>225</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>40</v>
@@ -6824,10 +6873,10 @@
     </row>
     <row r="206" spans="1:7" ht="21.75">
       <c r="A206" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>22</v>
@@ -6844,10 +6893,10 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>38</v>
@@ -6864,10 +6913,10 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>38</v>
@@ -6884,10 +6933,10 @@
     </row>
     <row r="209" spans="1:7" ht="21.75">
       <c r="A209" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>22</v>
@@ -6904,10 +6953,10 @@
     </row>
     <row r="210" spans="1:7" ht="15.75">
       <c r="A210" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B210" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="B210" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>38</v>
@@ -6924,10 +6973,10 @@
     </row>
     <row r="211" spans="1:7" ht="15.75">
       <c r="A211" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B211" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="B211" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>38</v>
@@ -6944,10 +6993,10 @@
     </row>
     <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C212" s="18" t="s">
         <v>32</v>
@@ -6964,10 +7013,10 @@
     </row>
     <row r="213" spans="1:7" ht="21.75">
       <c r="A213" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B213" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="B213" s="14" t="s">
-        <v>233</v>
       </c>
       <c r="C213" s="18" t="s">
         <v>22</v>
@@ -6984,10 +7033,10 @@
     </row>
     <row r="214" spans="1:7" ht="15.75">
       <c r="A214" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>38</v>
@@ -7004,10 +7053,10 @@
     </row>
     <row r="215" spans="1:7" ht="21.75">
       <c r="A215" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C215" s="18" t="s">
         <v>22</v>
@@ -7024,10 +7073,10 @@
     </row>
     <row r="216" spans="1:7" ht="15.75">
       <c r="A216" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>38</v>
@@ -7044,10 +7093,10 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>40</v>
@@ -7065,10 +7114,10 @@
     </row>
     <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C218" s="18" t="s">
         <v>32</v>
@@ -7085,10 +7134,10 @@
     </row>
     <row r="219" spans="1:7" ht="21.75">
       <c r="A219" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B219" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="B219" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="C219" s="18" t="s">
         <v>22</v>
@@ -7105,10 +7154,10 @@
     </row>
     <row r="220" spans="1:7" ht="15.75">
       <c r="A220" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>38</v>
@@ -7125,10 +7174,10 @@
     </row>
     <row r="221" spans="1:7" ht="15.75">
       <c r="A221" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>38</v>
@@ -7145,13 +7194,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E222" s="4">
         <v>45658</v>
@@ -7166,13 +7215,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E223" s="4">
         <v>45748</v>
@@ -7187,10 +7236,10 @@
     </row>
     <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C224" s="18" t="s">
         <v>32</v>
@@ -7207,10 +7256,10 @@
     </row>
     <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C225" s="18" t="s">
         <v>32</v>
@@ -7227,10 +7276,10 @@
     </row>
     <row r="226" spans="1:7" ht="21.75">
       <c r="A226" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="18" t="s">
         <v>22</v>
@@ -7247,10 +7296,10 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C227" s="19" t="s">
         <v>38</v>
@@ -7267,10 +7316,10 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C228" s="18" t="s">
         <v>40</v>
@@ -7288,13 +7337,13 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E229" s="4">
         <v>45658</v>
@@ -7309,13 +7358,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E230" s="4">
         <v>45786</v>
@@ -7330,10 +7379,10 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C231" s="18" t="s">
         <v>32</v>
@@ -7350,10 +7399,10 @@
     </row>
     <row r="232" spans="1:7" ht="21.75">
       <c r="A232" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B232" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="B232" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="C232" s="18" t="s">
         <v>22</v>
@@ -7370,10 +7419,10 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>38</v>
@@ -7390,10 +7439,10 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C234" s="18" t="s">
         <v>40</v>
@@ -7411,13 +7460,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E235" s="4">
         <v>45532</v>
@@ -7427,15 +7476,15 @@
         <v>1541.35</v>
       </c>
       <c r="G235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C236" s="18" t="s">
         <v>32</v>
@@ -7452,10 +7501,10 @@
     </row>
     <row r="237" spans="1:7" ht="21.75">
       <c r="A237" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C237" s="18" t="s">
         <v>22</v>
@@ -7472,10 +7521,10 @@
     </row>
     <row r="238" spans="1:7" ht="21.75">
       <c r="A238" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C238" s="18" t="s">
         <v>22</v>
@@ -7492,10 +7541,10 @@
     </row>
     <row r="239" spans="1:7" ht="15.75">
       <c r="A239" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>38</v>
@@ -7512,10 +7561,10 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C240" s="18" t="s">
         <v>40</v>
@@ -7533,13 +7582,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E241" s="4">
         <v>45658</v>
@@ -7554,10 +7603,10 @@
     </row>
     <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C242" s="18" t="s">
         <v>32</v>
@@ -7574,10 +7623,10 @@
     </row>
     <row r="243" spans="1:7" ht="21.75">
       <c r="A243" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="C243" s="18" t="s">
         <v>22</v>
@@ -7594,10 +7643,10 @@
     </row>
     <row r="244" spans="1:7" ht="15.75">
       <c r="A244" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>38</v>
@@ -7614,10 +7663,10 @@
     </row>
     <row r="245" spans="1:7" ht="15.75">
       <c r="A245" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>38</v>
@@ -7634,10 +7683,10 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C246" s="18" t="s">
         <v>40</v>
@@ -7655,10 +7704,10 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C247" s="18" t="s">
         <v>32</v>
@@ -7675,10 +7724,10 @@
     </row>
     <row r="248" spans="1:7" ht="21.75">
       <c r="A248" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="C248" s="18" t="s">
         <v>22</v>
@@ -7695,10 +7744,10 @@
     </row>
     <row r="249" spans="1:7" ht="17.25">
       <c r="A249" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>38</v>
@@ -7715,10 +7764,10 @@
     </row>
     <row r="250" spans="1:7" ht="17.25">
       <c r="A250" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>38</v>
@@ -7735,10 +7784,10 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C251" s="18" t="s">
         <v>40</v>
@@ -7756,13 +7805,13 @@
     </row>
     <row r="252" spans="1:7" ht="21.75">
       <c r="A252" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E252" s="4">
         <v>45658</v>
@@ -7776,10 +7825,10 @@
     </row>
     <row r="253" spans="1:7" ht="21.75">
       <c r="A253" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C253" s="18" t="s">
         <v>22</v>
@@ -7796,10 +7845,10 @@
     </row>
     <row r="254" spans="1:7" ht="15.75">
       <c r="A254" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B254" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="B254" s="20" t="s">
-        <v>277</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>38</v>
@@ -7816,10 +7865,10 @@
     </row>
     <row r="255" spans="1:7" ht="15.75">
       <c r="A255" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B255" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="B255" s="20" t="s">
-        <v>277</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>38</v>
@@ -7836,10 +7885,10 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>40</v>
@@ -7857,10 +7906,10 @@
     </row>
     <row r="257" spans="1:7" ht="21.75">
       <c r="A257" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>22</v>
@@ -7877,10 +7926,10 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B258" s="14" t="s">
         <v>282</v>
-      </c>
-      <c r="B258" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>38</v>
@@ -7897,10 +7946,10 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B259" s="14" t="s">
         <v>282</v>
-      </c>
-      <c r="B259" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>38</v>
@@ -7917,10 +7966,10 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>40</v>
@@ -7938,10 +7987,10 @@
     </row>
     <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>32</v>
@@ -7958,10 +8007,10 @@
     </row>
     <row r="262" spans="1:7" ht="21.75">
       <c r="A262" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B262" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="B262" s="14" t="s">
-        <v>285</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>22</v>
@@ -7978,10 +8027,10 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>38</v>
@@ -7999,10 +8048,10 @@
     </row>
     <row r="264" spans="1:7" ht="15.75">
       <c r="A264" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>38</v>
@@ -8019,10 +8068,10 @@
     </row>
     <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>32</v>
@@ -8039,10 +8088,10 @@
     </row>
     <row r="266" spans="1:7" ht="21.75">
       <c r="A266" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>22</v>
@@ -8059,10 +8108,10 @@
     </row>
     <row r="267" spans="1:7" ht="15.75">
       <c r="A267" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>38</v>
@@ -8079,10 +8128,10 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>40</v>
@@ -8100,13 +8149,13 @@
     </row>
     <row r="269" spans="1:7" ht="96">
       <c r="A269" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E269" s="4">
         <v>45658</v>
@@ -8120,13 +8169,13 @@
     </row>
     <row r="270" spans="1:7" ht="96">
       <c r="A270" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E270" s="4">
         <v>45698</v>
@@ -8140,10 +8189,10 @@
     </row>
     <row r="271" spans="1:7" ht="21.75">
       <c r="A271" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C271" s="28" t="s">
         <v>38</v>
@@ -8160,13 +8209,13 @@
     </row>
     <row r="272" spans="1:7" ht="52.5">
       <c r="A272" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E272" s="4">
         <v>45658</v>
@@ -8180,10 +8229,10 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C273" s="28" t="s">
         <v>16</v>
@@ -8196,15 +8245,15 @@
         <v>11220.8</v>
       </c>
       <c r="G273" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C274" s="28" t="s">
         <v>16</v>
@@ -8217,15 +8266,15 @@
         <v>10837.859999999999</v>
       </c>
       <c r="G274" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C275" s="28" t="s">
         <v>16</v>
@@ -8238,15 +8287,15 @@
         <v>11338.67</v>
       </c>
       <c r="G275" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C276" s="28" t="s">
         <v>16</v>
@@ -8259,15 +8308,15 @@
         <v>11518.949999999999</v>
       </c>
       <c r="G276" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C277" s="28" t="s">
         <v>16</v>
@@ -8280,15 +8329,15 @@
         <v>25122.449999999997</v>
       </c>
       <c r="G277" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C278" s="28" t="s">
         <v>16</v>
@@ -8301,24 +8350,24 @@
         <v>12452.8</v>
       </c>
       <c r="G278" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C279" s="29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E279" s="4">
         <v>45658</v>
       </c>
       <c r="F279" s="52">
-        <v>37849.94</v>
+        <v>40068.629999999997</v>
       </c>
       <c r="G279" t="s">
         <v>12</v>
@@ -8326,10 +8375,10 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C280" s="18" t="s">
         <v>40</v>
@@ -8338,7 +8387,7 @@
         <v>45658</v>
       </c>
       <c r="F280" s="52">
-        <v>50004.78</v>
+        <v>7025.07</v>
       </c>
       <c r="G280" t="s">
         <v>12</v>
@@ -8346,19 +8395,19 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C281" s="29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E281" s="4">
         <v>45658</v>
       </c>
       <c r="F281" s="52">
-        <v>21577.200000000001</v>
+        <v>653.33000000000004</v>
       </c>
       <c r="G281" t="s">
         <v>12</v>
@@ -8366,19 +8415,19 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C282" s="29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E282" s="4">
         <v>45658</v>
       </c>
       <c r="F282" s="52">
-        <v>2987.56</v>
+        <v>597.51</v>
       </c>
       <c r="G282" t="s">
         <v>12</v>
@@ -8386,13 +8435,13 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C283" s="29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E283" s="4">
         <v>45658</v>
@@ -8406,19 +8455,20 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C284" s="29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E284" s="4">
         <v>45658</v>
       </c>
       <c r="F284" s="52">
-        <v>4469.34</v>
+        <f>229+229*30%</f>
+        <v>297.7</v>
       </c>
       <c r="G284" t="s">
         <v>12</v>
@@ -8426,10 +8476,10 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>38</v>
@@ -8438,7 +8488,7 @@
         <v>45658</v>
       </c>
       <c r="F285" s="52">
-        <v>38783.71</v>
+        <v>40544.69</v>
       </c>
       <c r="G285" t="s">
         <v>12</v>
@@ -8446,30 +8496,30 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C286" s="29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E286" s="4">
         <v>45717</v>
       </c>
       <c r="F286" s="52">
-        <v>40060.379999999997</v>
+        <v>40068.629999999997</v>
       </c>
       <c r="G286" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C287" s="18" t="s">
         <v>40</v>
@@ -8478,61 +8528,61 @@
         <v>45717</v>
       </c>
       <c r="F287" s="52">
-        <v>50583.19</v>
+        <v>7025.07</v>
       </c>
       <c r="G287" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C288" s="29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E288" s="4">
         <v>45717</v>
       </c>
       <c r="F288" s="52">
-        <v>21577.200000000001</v>
+        <v>653.33000000000004</v>
       </c>
       <c r="G288" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C289" s="29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E289" s="4">
         <v>45717</v>
       </c>
       <c r="F289" s="52">
-        <v>2987.56</v>
+        <v>597.51</v>
       </c>
       <c r="G289" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E290" s="4">
         <v>45717</v>
@@ -8541,35 +8591,36 @@
         <v>366.6</v>
       </c>
       <c r="G290" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C291" s="29" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="B291" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C291" s="29" t="s">
-        <v>312</v>
       </c>
       <c r="E291" s="4">
         <v>45717</v>
       </c>
       <c r="F291" s="52">
-        <v>4469.34</v>
+        <f>229+229*30%</f>
+        <v>297.7</v>
       </c>
       <c r="G291" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>38</v>
@@ -8581,18 +8632,18 @@
         <v>40544.69</v>
       </c>
       <c r="G292" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C293" s="29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E293" s="4">
         <v>45778</v>
@@ -8604,12 +8655,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:8">
       <c r="A294" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C294" s="18" t="s">
         <v>40</v>
@@ -8618,61 +8669,65 @@
         <v>45778</v>
       </c>
       <c r="F294" s="52">
-        <v>50614.58</v>
+        <v>7025.07</v>
       </c>
       <c r="G294" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294">
+        <f>F294*12</f>
+        <v>84300.84</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C295" s="29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E295" s="4">
         <v>45778</v>
       </c>
       <c r="F295" s="52">
-        <v>21577.200000000001</v>
+        <v>653.33000000000004</v>
       </c>
       <c r="G295" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:8">
       <c r="A296" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C296" s="29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E296" s="4">
         <v>45778</v>
       </c>
       <c r="F296" s="52">
-        <v>2987.56</v>
+        <v>597.51</v>
       </c>
       <c r="G296" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:8">
       <c r="A297" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C297" s="29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E297" s="4">
         <v>45778</v>
@@ -8684,32 +8739,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:8">
       <c r="A298" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C298" s="29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E298" s="4">
         <v>45778</v>
       </c>
       <c r="F298" s="52">
-        <v>4469.34</v>
+        <f>229+229*30%</f>
+        <v>297.7</v>
       </c>
       <c r="G298" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="H298">
+        <f>F298*12</f>
+        <v>3572.3999999999996</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>38</v>
@@ -8723,13 +8783,17 @@
       <c r="G299" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" ht="14.25">
+      <c r="H299">
+        <f>F299*12</f>
+        <v>486536.28</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="14.25">
       <c r="A300" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C300" s="14" t="s">
         <v>32</v>
@@ -8744,12 +8808,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="21.75">
+    <row r="301" spans="1:8" ht="21.75">
       <c r="A301" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>22</v>
@@ -8764,12 +8828,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15.75">
+    <row r="302" spans="1:8" ht="15.75">
       <c r="A302" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>38</v>
@@ -8784,12 +8848,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15.75">
+    <row r="303" spans="1:8" ht="15.75">
       <c r="A303" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>38</v>
@@ -8801,18 +8865,18 @@
         <v>6204.01</v>
       </c>
       <c r="G303" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" ht="21.75">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="21.75">
       <c r="A304" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B304" s="30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E304" s="4">
         <v>45689</v>
@@ -8826,13 +8890,13 @@
     </row>
     <row r="305" spans="1:7" ht="21.75">
       <c r="A305" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B305" s="30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D305" s="4">
         <v>45728</v>
@@ -8840,15 +8904,15 @@
       <c r="E305" s="4"/>
       <c r="F305" s="57"/>
       <c r="G305" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="15.75">
       <c r="A306" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C306" s="25" t="s">
         <v>38</v>
@@ -8860,15 +8924,15 @@
         <v>22224.74</v>
       </c>
       <c r="G306" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="15.75">
       <c r="A307" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C307" s="25" t="s">
         <v>38</v>
@@ -8880,18 +8944,18 @@
         <v>22224.74</v>
       </c>
       <c r="G307" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="15.75">
       <c r="A308" s="21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E308" s="4">
         <v>45349</v>
@@ -8900,15 +8964,15 @@
         <v>1241.54</v>
       </c>
       <c r="G308" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B309" s="30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>40</v>
@@ -8924,37 +8988,55 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C310" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" ht="24">
+      <c r="E310" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F310" s="49">
+        <v>4602.7299999999996</v>
+      </c>
+      <c r="G310" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="21.75">
       <c r="A311" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C311" s="18" t="s">
         <v>22</v>
       </c>
+      <c r="E311" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F311" s="49">
+        <v>14410.42</v>
+      </c>
+      <c r="G311" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="312" spans="1:7" ht="42.75">
       <c r="A312" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E312" s="4">
         <v>45931</v>
@@ -8968,13 +9050,13 @@
     </row>
     <row r="313" spans="1:7" ht="42.75">
       <c r="A313" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D313" s="4">
         <v>45663</v>
@@ -8982,113 +9064,149 @@
       <c r="E313" s="4"/>
       <c r="F313" s="61"/>
       <c r="G313" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" ht="24">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B314" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C314" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="B314" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C314" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E314" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F314" s="49">
+        <v>307.35000000000002</v>
+      </c>
+      <c r="G314" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="21.75">
       <c r="A315" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B315" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="B315" s="31" t="s">
-        <v>333</v>
-      </c>
       <c r="C315" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" ht="24">
+        <v>22</v>
+      </c>
+      <c r="E315" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F315" s="49">
+        <v>426.4</v>
+      </c>
+      <c r="G315" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B316" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="C316" s="18" t="s">
-        <v>22</v>
+      <c r="B316" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E316" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F316" s="52">
+        <v>5374.23</v>
+      </c>
+      <c r="G316" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="13" t="s">
+      <c r="A317" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B317" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>38</v>
+      <c r="B317" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C317" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="E317" s="4">
         <v>45658</v>
       </c>
-      <c r="F317" s="52">
-        <v>5374.23</v>
-      </c>
-      <c r="G317" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
-      <c r="A318" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B318" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="C318" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E318" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F318">
+      <c r="F317">
         <f>33250/12</f>
         <v>2770.8333333333335</v>
       </c>
+      <c r="G317" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E318" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F318">
+        <f>13999.8/12</f>
+        <v>1166.6499999999999</v>
+      </c>
       <c r="G318" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" ht="21.75">
       <c r="A319" s="13" t="s">
         <v>337</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>133</v>
+        <v>338</v>
+      </c>
+      <c r="C319" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="E319" s="4">
         <v>45658</v>
       </c>
-      <c r="F319">
-        <f>13999.8/12</f>
-        <v>1166.6499999999999</v>
+      <c r="F319" s="69">
+        <v>1397.04</v>
       </c>
       <c r="G319" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="21.75">
+    <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B320" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B320" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="C320" s="18" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="E320" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F320" s="69">
+        <v>78.7</v>
+      </c>
+      <c r="G320" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9096,10 +9214,19 @@
         <v>340</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C321" s="18" t="s">
-        <v>32</v>
+        <v>338</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E321" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F321" s="55">
+        <v>5139.54</v>
+      </c>
+      <c r="G321" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9107,484 +9234,592 @@
         <v>341</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>38</v>
+        <v>338</v>
+      </c>
+      <c r="C322" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="E322" s="4">
         <v>45658</v>
       </c>
-      <c r="F322" s="55">
-        <v>5139.54</v>
+      <c r="F322">
+        <f>25002/12</f>
+        <v>2083.5</v>
       </c>
       <c r="G322" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="B323" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C323" s="18" t="s">
-        <v>40</v>
+      <c r="B323" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E323" s="4">
         <v>45658</v>
       </c>
-      <c r="F323">
-        <f>25002/12</f>
-        <v>2083.5</v>
+      <c r="F323" s="49">
+        <v>2508.9899999999998</v>
       </c>
       <c r="G323" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" ht="21.75">
       <c r="A324" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B324" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B324" s="14" t="s">
-        <v>344</v>
-      </c>
       <c r="C324" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" ht="24">
+        <v>22</v>
+      </c>
+      <c r="E324" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F324" s="49">
+        <v>750.5</v>
+      </c>
+      <c r="G324" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="15.75">
       <c r="A325" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B325" s="14" t="s">
-        <v>344</v>
+      <c r="B325" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" ht="15.75">
+        <v>38</v>
+      </c>
+      <c r="E325" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F325" s="57">
+        <v>6490.75</v>
+      </c>
+      <c r="G325" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E326" s="4">
-        <v>45658</v>
-      </c>
-      <c r="F326" s="57">
-        <v>6490.75</v>
+        <v>45668</v>
+      </c>
+      <c r="F326" s="55">
+        <v>6553.17</v>
       </c>
       <c r="G326" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" ht="15.75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" s="13" t="s">
         <v>346</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>38</v>
+        <v>343</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="E327" s="4">
-        <v>45668</v>
-      </c>
-      <c r="F327" s="57">
-        <v>6490.75</v>
+        <v>45658</v>
+      </c>
+      <c r="F327" s="55">
+        <f>27535/12</f>
+        <v>2294.5833333333335</v>
       </c>
       <c r="G327" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="21.75">
       <c r="A328" s="13" t="s">
         <v>347</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E328" s="4">
         <v>45658</v>
       </c>
-      <c r="F328" s="55">
-        <f>27535/12</f>
-        <v>2294.5833333333335</v>
+      <c r="F328" s="69">
+        <v>12597.02</v>
       </c>
       <c r="G328" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="24">
+    <row r="329" spans="1:7" ht="15.75">
       <c r="A329" s="13" t="s">
         <v>348</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C329" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" ht="15.75">
+        <v>304</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E329" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F329" s="57">
+        <v>4374.47</v>
+      </c>
+      <c r="G329" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330" s="13" t="s">
         <v>349</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E330" s="4">
         <v>45658</v>
       </c>
-      <c r="F330" s="57">
-        <v>4374.47</v>
+      <c r="F330" s="55">
+        <f>22615/12</f>
+        <v>1884.5833333333333</v>
       </c>
       <c r="G330" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="B331" s="6" t="s">
-        <v>303</v>
+      <c r="B331" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E331" s="4">
         <v>45658</v>
       </c>
-      <c r="F331" s="55">
-        <f>22615/12</f>
-        <v>1884.5833333333333</v>
+      <c r="F331" s="49">
+        <v>3374.56</v>
       </c>
       <c r="G331" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" ht="21.75">
       <c r="A332" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B332" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="B332" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" ht="24">
+      <c r="C332" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E332" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F332" s="49">
+        <v>3928.84</v>
+      </c>
+      <c r="G332" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="15.75">
       <c r="A333" s="13" t="s">
         <v>353</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C333" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" ht="15.75">
+        <v>351</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E333" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F333" s="54">
+        <v>4889.9799999999996</v>
+      </c>
+      <c r="G333" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334" s="13" t="s">
         <v>354</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E334" s="4">
         <v>45658</v>
       </c>
-      <c r="F334" s="54">
-        <v>4889.9799999999996</v>
+      <c r="F334" s="55">
+        <v>14819.78</v>
       </c>
       <c r="G334" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" ht="14.25">
       <c r="A335" s="13" t="s">
         <v>355</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>44</v>
+        <v>356</v>
+      </c>
+      <c r="C335" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="E335" s="4">
         <v>45658</v>
       </c>
-      <c r="F335" s="55">
-        <v>14819.78</v>
+      <c r="F335" s="49">
+        <v>520.84</v>
       </c>
       <c r="G335" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="21.75">
       <c r="A336" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B336" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B336" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C336" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" ht="24">
+      <c r="C336" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E336" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F336" s="49">
+        <v>3158.51</v>
+      </c>
+      <c r="G336" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="15.75">
       <c r="A337" s="13" t="s">
         <v>358</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="15.75">
+        <v>38</v>
+      </c>
+      <c r="E337" s="4">
+        <v>45387</v>
+      </c>
+      <c r="F337" s="57">
+        <v>4907.9799999999996</v>
+      </c>
+      <c r="G337" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" s="13" t="s">
         <v>359</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>38</v>
+        <v>356</v>
+      </c>
+      <c r="C338" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="E338" s="4">
-        <v>45387</v>
-      </c>
-      <c r="F338" s="57">
-        <v>4907.9799999999996</v>
+        <v>45790</v>
+      </c>
+      <c r="F338">
+        <f>21456/12</f>
+        <v>1788</v>
       </c>
       <c r="G338" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="21.75">
       <c r="A339" s="13" t="s">
         <v>360</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C339" s="18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E339" s="4">
-        <v>45790</v>
-      </c>
-      <c r="F339">
-        <f>21456/12</f>
-        <v>1788</v>
+        <v>45805</v>
+      </c>
+      <c r="F339" s="69">
+        <v>2227.75</v>
       </c>
       <c r="G339" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="24">
+    <row r="340" spans="1:7" ht="15.75">
       <c r="A340" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B340" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B340" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C340" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" ht="15.75">
+      <c r="C340" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E340" s="4">
+        <v>45385</v>
+      </c>
+      <c r="F340" s="57">
+        <v>5463.01</v>
+      </c>
+      <c r="G340" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="13" t="s">
         <v>363</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E341" s="4">
-        <v>45385</v>
-      </c>
-      <c r="F341" s="57">
-        <v>5463.01</v>
+        <v>45658</v>
+      </c>
+      <c r="F341" s="49">
+        <v>4345</v>
       </c>
       <c r="G341" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="21.75">
       <c r="A342" s="13" t="s">
         <v>364</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" ht="24">
+        <v>22</v>
+      </c>
+      <c r="E342" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F342" s="49">
+        <v>13023.56</v>
+      </c>
+      <c r="G342" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="B343" s="14" t="s">
-        <v>304</v>
+      <c r="B343" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="E343" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F343" s="52">
+        <v>4583.32</v>
+      </c>
+      <c r="G343" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E344" s="4">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="F344" s="52">
-        <v>4583.32</v>
+        <v>4815.1099999999997</v>
       </c>
       <c r="G344" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E345" s="4">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="F345" s="52">
-        <v>4815.1099999999997</v>
+        <v>4817.09</v>
       </c>
       <c r="G345" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E346" s="4">
-        <v>45778</v>
+        <v>45787</v>
       </c>
       <c r="F346" s="52">
-        <v>4817.09</v>
+        <v>4841.7</v>
       </c>
       <c r="G346" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="15.75">
       <c r="A347" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="B347" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>38</v>
+      <c r="B347" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C347" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="E347" s="4">
-        <v>45787</v>
-      </c>
-      <c r="F347" s="52">
-        <v>4841.7</v>
+        <v>45790</v>
+      </c>
+      <c r="F347" s="57">
+        <f>52338.36/12</f>
+        <v>4361.53</v>
       </c>
       <c r="G347" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" ht="15.75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="13" t="s">
         <v>367</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="C348" s="18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E348" s="4">
-        <v>45790</v>
-      </c>
-      <c r="F348" s="57">
-        <f>52338.36/12</f>
-        <v>4361.53</v>
+        <v>45658</v>
+      </c>
+      <c r="F348" s="49">
+        <v>335.68</v>
       </c>
       <c r="G348" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" ht="14.25">
       <c r="A349" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B349" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="B349" s="14" t="s">
-        <v>369</v>
       </c>
       <c r="C349" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" ht="24">
+      <c r="E349" s="4">
+        <v>45673</v>
+      </c>
+      <c r="F349" s="49">
+        <v>335.68</v>
+      </c>
+      <c r="G349" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="21.75">
       <c r="A350" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C350" s="18" t="s">
         <v>22</v>
       </c>
+      <c r="E350" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F350" s="49">
+        <v>4583.93</v>
+      </c>
+      <c r="G350" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="351" spans="1:7" ht="17.25">
       <c r="A351" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>38</v>
@@ -9601,10 +9836,10 @@
     </row>
     <row r="352" spans="1:7" ht="17.25">
       <c r="A352" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>38</v>
@@ -9619,12 +9854,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:8">
       <c r="A353" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C353" s="18" t="s">
         <v>40</v>
@@ -9640,45 +9875,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="24">
+    <row r="354" spans="1:8" ht="21.75">
       <c r="A354" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="355" spans="1:7">
+      <c r="E354" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F354" s="49">
+        <v>36353.760000000002</v>
+      </c>
+      <c r="G354" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="14.25">
       <c r="A355" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B355" s="14" t="s">
         <v>374</v>
-      </c>
-      <c r="B355" s="14" t="s">
-        <v>375</v>
       </c>
       <c r="C355" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" ht="24">
+      <c r="E355" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F355" s="49">
+        <v>354.6</v>
+      </c>
+      <c r="G355" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="21.75">
       <c r="A356" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C356" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" ht="15.75">
+      <c r="E356" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F356" s="49">
+        <v>52933.15</v>
+      </c>
+      <c r="G356" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="15.75">
       <c r="A357" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C357" s="24" t="s">
         <v>38</v>
@@ -9693,12 +9955,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:8">
       <c r="A358" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B358" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C358" s="17" t="s">
         <v>40</v>
@@ -9714,12 +9976,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="24">
+    <row r="359" spans="1:8" ht="24">
       <c r="A359" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B359" s="14" t="s">
         <v>379</v>
-      </c>
-      <c r="B359" s="14" t="s">
-        <v>380</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>40</v>
@@ -9735,45 +9997,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="21.75">
+    <row r="360" spans="1:8" ht="21.75">
       <c r="A360" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="361" spans="1:7">
+      <c r="E360" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F360" s="49">
+        <v>886.36</v>
+      </c>
+      <c r="G360" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="14.25">
       <c r="A361" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B361" s="14" t="s">
         <v>382</v>
-      </c>
-      <c r="B361" s="14" t="s">
-        <v>383</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" ht="24">
+      <c r="E361" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F361" s="49">
+        <v>336.41</v>
+      </c>
+      <c r="G361" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="21.75">
       <c r="A362" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" ht="17.25">
+      <c r="E362" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F362" s="49">
+        <v>4428.99</v>
+      </c>
+      <c r="G362" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="17.25">
       <c r="A363" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>38</v>
@@ -9788,12 +10077,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="15.75">
+    <row r="364" spans="1:8" ht="15.75">
       <c r="A364" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C364" s="18" t="s">
         <v>40</v>
@@ -9809,12 +10098,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="15.75">
+    <row r="365" spans="1:8" ht="15.75">
       <c r="A365" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B365" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="B365" s="14" t="s">
-        <v>388</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>38</v>
@@ -9826,15 +10115,15 @@
         <v>31696.38</v>
       </c>
       <c r="G365" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" ht="15.75">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="15.75">
       <c r="A366" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B366" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="B366" s="14" t="s">
-        <v>388</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>38</v>
@@ -9845,48 +10134,76 @@
       <c r="E366" s="4"/>
       <c r="F366" s="53"/>
       <c r="G366" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="14.25">
+      <c r="A367" s="13" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="367" spans="1:7">
-      <c r="A367" s="13" t="s">
+      <c r="B367" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B367" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="C367" s="2" t="s">
+      <c r="E367" s="4">
+        <v>45926</v>
+      </c>
+      <c r="F367" s="49">
+        <v>324204.25</v>
+      </c>
+      <c r="G367" t="s">
+        <v>12</v>
+      </c>
+      <c r="H367" s="73"/>
+    </row>
+    <row r="368" spans="1:8" ht="14.25">
+      <c r="A368" s="13" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="368" spans="1:7">
-      <c r="A368" s="13" t="s">
+      <c r="B368" s="14" t="s">
         <v>392</v>
-      </c>
-      <c r="B368" s="14" t="s">
-        <v>393</v>
       </c>
       <c r="C368" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" ht="24">
+      <c r="E368" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F368" s="49">
+        <v>139.01</v>
+      </c>
+      <c r="G368" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="21.75">
       <c r="A369" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C369" s="18" t="s">
         <v>22</v>
       </c>
+      <c r="E369" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F369" s="49">
+        <v>36184.68</v>
+      </c>
+      <c r="G369" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B370" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C370" s="19" t="s">
         <v>38</v>
@@ -9903,10 +10220,10 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C371" s="18" t="s">
         <v>40</v>
@@ -9922,34 +10239,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B372" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="B372" s="14" t="s">
-        <v>398</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" ht="24">
+      <c r="E372" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F372" s="49">
+        <v>244.09</v>
+      </c>
+      <c r="G372" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="21.75">
       <c r="A373" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E373" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F373" s="49">
+        <v>3423.01</v>
+      </c>
+      <c r="G373" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>40</v>
@@ -9967,10 +10302,10 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>38</v>
@@ -9985,37 +10320,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" ht="24">
+      <c r="E376" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F376" s="49">
+        <v>1109.17</v>
+      </c>
+      <c r="G376" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="21.75">
       <c r="A377" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E377" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F377" s="49">
+        <v>14744.56</v>
+      </c>
+      <c r="G377" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="378" spans="1:7" ht="15.75">
       <c r="A378" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E378" s="4">
         <v>45641</v>
@@ -10024,15 +10377,15 @@
         <v>543.42999999999995</v>
       </c>
       <c r="G378" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="15.75">
       <c r="A379" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>38</v>
@@ -10049,10 +10402,10 @@
     </row>
     <row r="380" spans="1:7" ht="15.75">
       <c r="A380" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>38</v>
@@ -10069,13 +10422,13 @@
     </row>
     <row r="381" spans="1:7" ht="15.75">
       <c r="A381" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B381" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="B381" s="14" t="s">
-        <v>407</v>
-      </c>
       <c r="C381" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E381" s="4">
         <v>45658</v>
@@ -10087,34 +10440,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B382" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="B382" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="C382" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" ht="24">
+      <c r="E382" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F382" s="49">
+        <v>341.4</v>
+      </c>
+      <c r="G382" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="21.75">
       <c r="A383" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C383" s="18" t="s">
         <v>22</v>
       </c>
+      <c r="E383" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F383" s="49">
+        <v>2285.73</v>
+      </c>
+      <c r="G383" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="384" spans="1:7" ht="15.75">
       <c r="A384" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>38</v>
@@ -10131,10 +10502,10 @@
     </row>
     <row r="385" spans="1:7" ht="15.75">
       <c r="A385" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>38</v>
@@ -10146,15 +10517,15 @@
         <v>5159.66</v>
       </c>
       <c r="G385" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="15.75">
       <c r="A386" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>38</v>
@@ -10171,10 +10542,10 @@
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>40</v>
@@ -10192,30 +10563,30 @@
     </row>
     <row r="388" spans="1:7" ht="84">
       <c r="A388" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B388" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="B388" s="34" t="s">
+      <c r="C388" s="35" t="s">
         <v>414</v>
-      </c>
-      <c r="C388" s="35" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="52.5">
       <c r="A389" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B389" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C389" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="B389" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C389" s="35" t="s">
-        <v>417</v>
-      </c>
       <c r="E389" s="4">
         <v>45658</v>
       </c>
       <c r="F389" s="57">
-        <v>5608737.7000000002</v>
+        <v>467394.8</v>
       </c>
       <c r="G389" t="s">
         <v>12</v>
@@ -10223,19 +10594,19 @@
     </row>
     <row r="390" spans="1:7" ht="52.5">
       <c r="A390" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B390" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C390" s="35" t="s">
         <v>416</v>
-      </c>
-      <c r="B390" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C390" s="35" t="s">
-        <v>417</v>
       </c>
       <c r="E390" s="4">
         <v>45712</v>
       </c>
       <c r="F390" s="57">
-        <v>5879712.6500000004</v>
+        <v>489976.05</v>
       </c>
       <c r="G390" t="s">
         <v>52</v>
@@ -10243,13 +10614,13 @@
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="B391" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="E391" s="4">
         <v>45658</v>
@@ -10263,19 +10634,20 @@
     </row>
     <row r="392" spans="1:7" ht="42.75">
       <c r="A392" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B392" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C392" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="B392" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C392" s="35" t="s">
-        <v>421</v>
-      </c>
       <c r="E392" s="4">
         <v>45658</v>
       </c>
       <c r="F392" s="57">
-        <v>20193.25</v>
+        <f>20193.25/12</f>
+        <v>1682.7708333333333</v>
       </c>
       <c r="G392" t="s">
         <v>12</v>
@@ -10283,19 +10655,20 @@
     </row>
     <row r="393" spans="1:7" ht="42.75">
       <c r="A393" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B393" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C393" s="35" t="s">
         <v>420</v>
-      </c>
-      <c r="B393" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C393" s="35" t="s">
-        <v>421</v>
       </c>
       <c r="E393" s="4">
         <v>45775</v>
       </c>
       <c r="F393" s="57">
-        <v>21299.27</v>
+        <f>21299.27/12</f>
+        <v>1774.9391666666668</v>
       </c>
       <c r="G393" t="s">
         <v>52</v>
@@ -10303,13 +10676,13 @@
     </row>
     <row r="394" spans="1:7" ht="102">
       <c r="A394" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B394" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C394" s="36" t="s">
         <v>422</v>
-      </c>
-      <c r="B394" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C394" s="36" t="s">
-        <v>423</v>
       </c>
       <c r="E394" s="4">
         <v>45658</v>
@@ -10324,13 +10697,13 @@
     </row>
     <row r="395" spans="1:7" ht="84">
       <c r="A395" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B395" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C395" s="17" t="s">
         <v>424</v>
-      </c>
-      <c r="B395" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C395" s="17" t="s">
-        <v>425</v>
       </c>
       <c r="E395" s="4">
         <v>45658</v>
@@ -10345,13 +10718,13 @@
     </row>
     <row r="396" spans="1:7" ht="74.25">
       <c r="A396" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B396" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C396" s="17" t="s">
         <v>424</v>
-      </c>
-      <c r="B396" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C396" s="17" t="s">
-        <v>425</v>
       </c>
       <c r="E396" s="4">
         <v>45756</v>
@@ -10366,13 +10739,13 @@
     </row>
     <row r="397" spans="1:7" ht="24">
       <c r="A397" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B397" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="B397" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="E397" s="4">
         <v>45658</v>
@@ -10387,13 +10760,13 @@
     </row>
     <row r="398" spans="1:7" ht="14.25">
       <c r="A398" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B398" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C398" s="37" t="s">
         <v>428</v>
-      </c>
-      <c r="B398" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C398" s="37" t="s">
-        <v>429</v>
       </c>
       <c r="E398" s="4">
         <v>45658</v>
@@ -10407,13 +10780,13 @@
     </row>
     <row r="399" spans="1:7" ht="48">
       <c r="A399" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B399" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B399" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E399" s="4">
         <v>45658</v>
@@ -10428,13 +10801,13 @@
     </row>
     <row r="400" spans="1:7" ht="42.75">
       <c r="A400" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B400" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B400" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E400" s="4">
         <v>45746</v>
@@ -10449,13 +10822,13 @@
     </row>
     <row r="401" spans="1:7" ht="24">
       <c r="A401" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B401" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C401" s="38" t="s">
         <v>432</v>
-      </c>
-      <c r="B401" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C401" s="38" t="s">
-        <v>433</v>
       </c>
       <c r="E401" s="4">
         <v>45624</v>
@@ -10465,18 +10838,18 @@
         <v>934.29416666666668</v>
       </c>
       <c r="G401" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="60">
       <c r="A402" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B402" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C402" s="35" t="s">
         <v>434</v>
-      </c>
-      <c r="B402" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C402" s="35" t="s">
-        <v>435</v>
       </c>
       <c r="E402" s="4">
         <v>45658</v>
@@ -10491,13 +10864,13 @@
     </row>
     <row r="403" spans="1:7" ht="52.5">
       <c r="A403" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B403" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C403" s="35" t="s">
         <v>434</v>
-      </c>
-      <c r="B403" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C403" s="35" t="s">
-        <v>435</v>
       </c>
       <c r="E403" s="4">
         <v>45814</v>
@@ -10512,20 +10885,20 @@
     </row>
     <row r="404" spans="1:7" ht="60">
       <c r="A404" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="B404" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C404" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="B404" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C404" s="39" t="s">
-        <v>437</v>
-      </c>
       <c r="E404" s="4">
         <v>45658</v>
       </c>
       <c r="F404">
-        <f>295175.68/12</f>
-        <v>24597.973333333332</v>
+        <f>56035.174/12</f>
+        <v>4669.5978333333333</v>
       </c>
       <c r="G404" t="s">
         <v>12</v>
@@ -10533,20 +10906,20 @@
     </row>
     <row r="405" spans="1:7" ht="42.75">
       <c r="A405" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="B405" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C405" s="39" t="s">
         <v>436</v>
-      </c>
-      <c r="B405" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C405" s="39" t="s">
-        <v>437</v>
       </c>
       <c r="E405" s="4">
         <v>45899</v>
       </c>
       <c r="F405">
-        <f>310599.26/12</f>
-        <v>25883.271666666667</v>
+        <f>62119.86/12</f>
+        <v>5176.6549999999997</v>
       </c>
       <c r="G405" t="s">
         <v>52</v>
@@ -10554,34 +10927,34 @@
     </row>
     <row r="406" spans="1:7" ht="36">
       <c r="A406" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B406" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C406" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="B406" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="E406" s="4">
         <v>45579</v>
       </c>
       <c r="F406">
-        <f>90577.68/12</f>
-        <v>7548.1399999999994</v>
+        <f>90577.68/30</f>
+        <v>3019.2559999999999</v>
       </c>
       <c r="G406" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="36">
       <c r="A407" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B407" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C407" s="40" t="s">
         <v>440</v>
-      </c>
-      <c r="B407" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C407" s="40" t="s">
-        <v>441</v>
       </c>
       <c r="E407" s="4">
         <v>45656</v>
@@ -10591,60 +10964,60 @@
         <v>6312.625</v>
       </c>
       <c r="G407" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="24">
       <c r="A408" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="B408" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B408" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="E408" s="4">
         <v>45554</v>
       </c>
       <c r="F408">
-        <f>277616.11/12</f>
-        <v>23134.675833333331</v>
+        <f>277616.11/30</f>
+        <v>9253.8703333333324</v>
       </c>
       <c r="G408" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="24">
       <c r="A409" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E409" s="4">
         <v>45554</v>
       </c>
       <c r="F409">
-        <f>871920.45/12</f>
-        <v>72660.037499999991</v>
+        <f>871920.45/30</f>
+        <v>29064.014999999999</v>
       </c>
       <c r="G409" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="B410" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="E410" s="4">
         <v>45656</v>
@@ -10653,18 +11026,18 @@
         <v>3888.25</v>
       </c>
       <c r="G410" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="14.25">
       <c r="A411" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B411" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="E411" s="4">
         <v>45658</v>
@@ -10678,13 +11051,13 @@
     </row>
     <row r="412" spans="1:7" ht="144">
       <c r="A412" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B412" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C412" s="35" t="s">
         <v>449</v>
-      </c>
-      <c r="B412" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C412" s="35" t="s">
-        <v>450</v>
       </c>
       <c r="E412" s="4">
         <v>45658</v>
@@ -10699,13 +11072,13 @@
     </row>
     <row r="413" spans="1:7" ht="63.75">
       <c r="A413" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B413" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B413" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="E413" s="4">
         <v>45692</v>
@@ -10719,13 +11092,13 @@
     </row>
     <row r="414" spans="1:7" ht="32.25">
       <c r="A414" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B414" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B414" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="E414" s="4">
         <v>45770</v>
@@ -10739,13 +11112,13 @@
     </row>
     <row r="415" spans="1:7" ht="52.5">
       <c r="A415" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B415" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C415" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B415" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="E415" s="4">
         <v>45686</v>
@@ -10759,13 +11132,13 @@
     </row>
     <row r="416" spans="1:7" ht="170.25">
       <c r="A416" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B416" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B416" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="E416" s="4">
         <v>45777</v>
@@ -10779,13 +11152,13 @@
     </row>
     <row r="417" spans="1:7" ht="170.25">
       <c r="A417" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B417" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C417" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B417" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="E417" s="64">
         <v>45777</v>
@@ -10794,18 +11167,18 @@
         <v>146903.7475</v>
       </c>
       <c r="G417" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="42.75">
       <c r="A418" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B418" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B418" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="E418" s="4">
         <v>45730</v>
@@ -10819,13 +11192,13 @@
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B419" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E419" s="4">
         <v>45658</v>
@@ -10839,13 +11212,13 @@
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B420" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E420" s="4">
         <v>45658</v>
@@ -10859,43 +11232,43 @@
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B421" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D421" s="4">
         <v>45671</v>
       </c>
       <c r="F421" s="52"/>
       <c r="G421" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B422" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D422" s="4">
         <v>45671</v>
       </c>
       <c r="F422" s="52"/>
       <c r="G422" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B423" s="14" t="s">
         <v>18</v>
@@ -10915,7 +11288,7 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B424" s="14" t="s">
         <v>46</v>
@@ -10935,7 +11308,7 @@
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B425" s="14" t="s">
         <v>18</v>
@@ -10949,12 +11322,12 @@
       <c r="E425" s="4"/>
       <c r="F425" s="66"/>
       <c r="G425" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B426" s="14" t="s">
         <v>46</v>
@@ -10968,18 +11341,18 @@
       <c r="E426" s="4"/>
       <c r="F426" s="66"/>
       <c r="G426" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="76.5">
       <c r="A427" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E427" s="4">
         <v>45944</v>
@@ -10994,10 +11367,10 @@
     </row>
     <row r="428" spans="1:7" ht="15.75">
       <c r="A428" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B428" s="16" t="s">
         <v>467</v>
-      </c>
-      <c r="B428" s="16" t="s">
-        <v>468</v>
       </c>
       <c r="C428" s="19" t="s">
         <v>38</v>
@@ -11012,31 +11385,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" ht="14.25">
       <c r="A429" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B429" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C429" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" ht="24">
+      <c r="E429" s="4">
+        <v>45911</v>
+      </c>
+      <c r="F429" s="71">
+        <v>4000</v>
+      </c>
+      <c r="G429" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="21.75">
       <c r="A430" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B430" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E430" s="4">
+        <v>45909</v>
+      </c>
+      <c r="F430" s="71">
+        <v>38236.088000000003</v>
+      </c>
+      <c r="G430" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="431" spans="1:7">
       <c r="A431" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B431" s="14" t="s">
         <v>19</v>
@@ -11057,7 +11448,7 @@
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B432" s="14" t="s">
         <v>20</v>
@@ -11078,13 +11469,13 @@
     </row>
     <row r="433" spans="1:7" ht="17.25">
       <c r="A433" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B433" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="B433" s="14" t="s">
-        <v>473</v>
-      </c>
       <c r="C433" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E433" s="4">
         <v>45903</v>
@@ -11098,7 +11489,7 @@
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B434" s="6" t="s">
         <v>20</v>
@@ -11118,13 +11509,13 @@
     </row>
     <row r="435" spans="1:7" ht="32.25">
       <c r="A435" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B435" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="B435" s="22" t="s">
+      <c r="C435" s="19" t="s">
         <v>476</v>
-      </c>
-      <c r="C435" s="19" t="s">
-        <v>477</v>
       </c>
       <c r="E435" s="4">
         <v>45839</v>
@@ -11138,10 +11529,10 @@
     </row>
     <row r="436" spans="1:7" ht="15.75">
       <c r="A436" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B436" s="14" t="s">
         <v>478</v>
-      </c>
-      <c r="B436" s="14" t="s">
-        <v>479</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>38</v>
@@ -11158,7 +11549,7 @@
     </row>
     <row r="437" spans="1:7" ht="15.75">
       <c r="A437" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B437" s="6" t="s">
         <v>77</v>
@@ -11178,13 +11569,13 @@
     </row>
     <row r="438" spans="1:7" ht="15.75">
       <c r="A438" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B438" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="B438" s="14" t="s">
-        <v>482</v>
-      </c>
       <c r="C438" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E438" s="4">
         <v>45833</v>
@@ -11196,23 +11587,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" ht="14.25">
       <c r="A439" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="B439" s="14" t="s">
         <v>483</v>
-      </c>
-      <c r="B439" s="14" t="s">
-        <v>484</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E439" s="4">
+        <v>45804</v>
+      </c>
+      <c r="F439" s="49">
+        <v>1372.97</v>
+      </c>
+      <c r="G439" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C440" s="18" t="s">
         <v>40</v>
@@ -11230,10 +11630,10 @@
     </row>
     <row r="441" spans="1:7" ht="15.75">
       <c r="A441" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B441" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="B441" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="C441" s="19" t="s">
         <v>38</v>
@@ -11250,13 +11650,13 @@
     </row>
     <row r="442" spans="1:7" ht="15.75">
       <c r="A442" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E442" s="4">
         <v>45945</v>
@@ -11270,13 +11670,13 @@
     </row>
     <row r="443" spans="1:7" ht="15.75">
       <c r="A443" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B443" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="B443" s="14" t="s">
-        <v>490</v>
-      </c>
       <c r="C443" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E443" s="4">
         <v>45839</v>
@@ -11290,13 +11690,13 @@
     </row>
     <row r="444" spans="1:7" ht="15.75">
       <c r="A444" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B444" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E444" s="4">
         <v>45839</v>
@@ -11310,10 +11710,10 @@
     </row>
     <row r="445" spans="1:7" ht="14.25">
       <c r="A445" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B445" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C445" s="24" t="s">
         <v>40</v>
@@ -11331,7 +11731,7 @@
     </row>
     <row r="446" spans="1:7" ht="14.25">
       <c r="A446" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B446" s="25" t="s">
         <v>163</v>
@@ -11352,10 +11752,10 @@
     </row>
     <row r="447" spans="1:7" ht="14.25">
       <c r="A447" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B447" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C447" s="24" t="s">
         <v>40</v>
@@ -11373,10 +11773,10 @@
     </row>
     <row r="448" spans="1:7" ht="14.25">
       <c r="A448" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B448" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C448" s="24" t="s">
         <v>40</v>
@@ -11394,10 +11794,10 @@
     </row>
     <row r="449" spans="1:7" ht="14.25">
       <c r="A449" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B449" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C449" s="24" t="s">
         <v>40</v>
@@ -11415,10 +11815,10 @@
     </row>
     <row r="450" spans="1:7" ht="14.25">
       <c r="A450" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B450" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C450" s="24" t="s">
         <v>40</v>
@@ -11436,10 +11836,10 @@
     </row>
     <row r="451" spans="1:7" ht="14.25">
       <c r="A451" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B451" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C451" s="24" t="s">
         <v>40</v>
@@ -11457,10 +11857,10 @@
     </row>
     <row r="452" spans="1:7" ht="14.25">
       <c r="A452" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B452" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C452" s="24" t="s">
         <v>40</v>
@@ -11472,18 +11872,18 @@
         <v>0</v>
       </c>
       <c r="G452" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="453" spans="1:7" ht="15.75">
       <c r="A453" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E453" s="4">
         <v>45902</v>
@@ -11497,13 +11897,13 @@
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C454" s="17" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E454" s="4">
         <v>45839</v>
@@ -11517,13 +11917,13 @@
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B455" s="14" t="s">
         <v>156</v>
       </c>
       <c r="C455" s="17" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E455" s="4">
         <v>45839</v>
@@ -11535,23 +11935,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" ht="14.25">
       <c r="A456" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C456" s="41" t="s">
         <v>32</v>
       </c>
+      <c r="E456" s="4">
+        <v>45826</v>
+      </c>
+      <c r="F456" s="49">
+        <v>1784.6</v>
+      </c>
+      <c r="G456" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="457" spans="1:7" ht="15.75">
       <c r="A457" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C457" s="42" t="s">
         <v>38</v>
@@ -11566,92 +11975,101 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="24">
+    <row r="458" spans="1:7">
       <c r="A458" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C458" s="24" t="s">
-        <v>497</v>
+        <v>149</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E458" s="4">
+        <v>45902</v>
+      </c>
+      <c r="F458" s="52">
+        <v>6181.26</v>
+      </c>
+      <c r="G458" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="459" spans="1:7">
       <c r="A459" s="13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E459" s="4">
         <v>45902</v>
       </c>
       <c r="F459" s="52">
-        <v>6181.26</v>
+        <v>12535.1</v>
       </c>
       <c r="G459" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" ht="15.75">
       <c r="A460" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B460" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E460" s="4">
+        <v>45945</v>
+      </c>
+      <c r="F460" s="56">
+        <v>9074.74</v>
+      </c>
+      <c r="G460" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" ht="15.75">
+      <c r="A461" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="B461" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C461" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E461" s="4">
+        <v>45902</v>
+      </c>
+      <c r="F461" s="56">
+        <v>12245.7</v>
+      </c>
+      <c r="G461" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" ht="15.75">
+      <c r="A462" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="B460" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E460" s="4">
-        <v>45902</v>
-      </c>
-      <c r="F460" s="52">
-        <v>12535.1</v>
-      </c>
-      <c r="G460" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" ht="15.75">
-      <c r="A461" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="B461" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E461" s="4">
-        <v>45945</v>
-      </c>
-      <c r="F461" s="56">
-        <v>9074.74</v>
-      </c>
-      <c r="G461" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" ht="15.75">
-      <c r="A462" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="B462" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C462" s="19" t="s">
-        <v>56</v>
+      <c r="B462" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E462" s="4">
         <v>45902</v>
       </c>
       <c r="F462" s="56">
-        <v>12245.7</v>
+        <v>24664.44</v>
       </c>
       <c r="G462" t="s">
         <v>12</v>
@@ -11659,19 +12077,19 @@
     </row>
     <row r="463" spans="1:7" ht="15.75">
       <c r="A463" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B463" s="14" t="s">
-        <v>120</v>
+        <v>499</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E463" s="4">
-        <v>45902</v>
+        <v>45945</v>
       </c>
       <c r="F463" s="56">
-        <v>24664.44</v>
+        <v>14999.97</v>
       </c>
       <c r="G463" t="s">
         <v>12</v>
@@ -11679,19 +12097,19 @@
     </row>
     <row r="464" spans="1:7" ht="15.75">
       <c r="A464" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E464" s="4">
-        <v>45945</v>
+        <v>45901</v>
       </c>
       <c r="F464" s="56">
-        <v>14999.97</v>
+        <v>9536.9599999999991</v>
       </c>
       <c r="G464" t="s">
         <v>12</v>
@@ -11699,39 +12117,40 @@
     </row>
     <row r="465" spans="1:7" ht="15.75">
       <c r="A465" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B465" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B465" s="14" t="s">
         <v>200</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E465" s="4">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="F465" s="56">
-        <v>9536.9599999999991</v>
+        <v>18990.900000000001</v>
       </c>
       <c r="G465" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="15.75">
+    <row r="466" spans="1:7">
       <c r="A466" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>56</v>
+        <v>234</v>
+      </c>
+      <c r="C466" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E466" s="4">
-        <v>45870</v>
-      </c>
-      <c r="F466" s="56">
-        <v>18990.900000000001</v>
+        <v>45881</v>
+      </c>
+      <c r="F466">
+        <f>24777/12</f>
+        <v>2064.75</v>
       </c>
       <c r="G466" t="s">
         <v>12</v>
@@ -11739,10 +12158,10 @@
     </row>
     <row r="467" spans="1:7">
       <c r="A467" s="13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>40</v>
@@ -11751,8 +12170,8 @@
         <v>45881</v>
       </c>
       <c r="F467">
-        <f>24777/12</f>
-        <v>2064.75</v>
+        <f>33250/12</f>
+        <v>2770.8333333333335</v>
       </c>
       <c r="G467" t="s">
         <v>12</v>
@@ -11760,10 +12179,10 @@
     </row>
     <row r="468" spans="1:7">
       <c r="A468" s="13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>40</v>
@@ -11772,49 +12191,48 @@
         <v>45881</v>
       </c>
       <c r="F468">
-        <f>33250/12</f>
-        <v>2770.8333333333335</v>
-      </c>
-      <c r="G468" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
-      <c r="A469" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B469" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C469" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E469" s="4">
-        <v>45881</v>
-      </c>
-      <c r="F469">
         <f>96606/12</f>
         <v>8050.5</v>
       </c>
+      <c r="G468" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" ht="63.75">
+      <c r="A469" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B469" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E469" s="4">
+        <v>45853</v>
+      </c>
+      <c r="F469" s="57">
+        <v>66356.14</v>
+      </c>
       <c r="G469" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="63.75">
+    <row r="470" spans="1:7" ht="15.75">
       <c r="A470" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B470" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B470" s="14" t="s">
+      <c r="C470" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="C470" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E470" s="4">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="F470" s="57">
-        <v>66356.14</v>
+        <v>13999.86</v>
       </c>
       <c r="G470" t="s">
         <v>12</v>
@@ -11825,16 +12243,16 @@
         <v>508</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>509</v>
+        <v>241</v>
       </c>
       <c r="C471" s="18" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E471" s="4">
         <v>45852</v>
       </c>
       <c r="F471" s="57">
-        <v>13999.86</v>
+        <v>13865.66</v>
       </c>
       <c r="G471" t="s">
         <v>12</v>
@@ -11842,120 +12260,120 @@
     </row>
     <row r="472" spans="1:7" ht="15.75">
       <c r="A472" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C472" s="18" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E472" s="4">
         <v>45852</v>
       </c>
       <c r="F472" s="57">
-        <v>13865.66</v>
+        <v>13999.98</v>
       </c>
       <c r="G472" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="15.75">
+    <row r="473" spans="1:7">
       <c r="A473" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C473" s="18" t="s">
-        <v>510</v>
+        <v>224</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="E473" s="4">
-        <v>45852</v>
-      </c>
-      <c r="F473" s="57">
-        <v>13999.98</v>
-      </c>
-      <c r="G473" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
-      <c r="A474" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="B474" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E474" s="4">
         <v>45841</v>
       </c>
-      <c r="F474">
+      <c r="F473">
         <f>35000/6</f>
         <v>5833.333333333333</v>
       </c>
+      <c r="G473" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" ht="15.75">
+      <c r="A474" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C474" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="E474" s="4">
+        <v>45852</v>
+      </c>
+      <c r="F474" s="57">
+        <v>13590.3</v>
+      </c>
       <c r="G474" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="475" spans="1:7" ht="15.75">
       <c r="A475" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>264</v>
+        <v>513</v>
+      </c>
+      <c r="B475" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E475" s="4">
         <v>45852</v>
       </c>
       <c r="F475" s="57">
-        <v>13590.3</v>
+        <v>13999.72</v>
       </c>
       <c r="G475" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="476" spans="1:7" ht="15.75">
-      <c r="A476" s="13" t="s">
+      <c r="A476" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="B476" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="C476" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E476" s="4">
+        <v>45937</v>
+      </c>
+      <c r="F476" s="57">
+        <v>18281.12</v>
+      </c>
+      <c r="G476" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" ht="15.75">
+      <c r="A477" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B477" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="B476" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C476" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="E476" s="4">
-        <v>45852</v>
-      </c>
-      <c r="F476" s="57">
-        <v>13999.72</v>
-      </c>
-      <c r="G476" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7" ht="15.75">
-      <c r="A477" s="43" t="s">
-        <v>517</v>
-      </c>
-      <c r="B477" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="C477" s="44" t="s">
+      <c r="C477" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E477" s="4">
         <v>45937</v>
       </c>
       <c r="F477" s="57">
-        <v>18281.12</v>
+        <v>6204.01</v>
       </c>
       <c r="G477" t="s">
         <v>12</v>
@@ -11963,61 +12381,71 @@
     </row>
     <row r="478" spans="1:7" ht="15.75">
       <c r="A478" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B478" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B478" s="14" t="s">
+      <c r="C478" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C478" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E478" s="4">
-        <v>45937</v>
+        <v>45792</v>
       </c>
       <c r="F478" s="57">
-        <v>6204.01</v>
+        <v>26148.78</v>
       </c>
       <c r="G478" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" ht="15.75">
       <c r="A479" s="13" t="s">
         <v>520</v>
       </c>
       <c r="B479" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="C479" s="2" t="s">
+      <c r="C479" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E479" s="4">
+        <v>45841</v>
+      </c>
+      <c r="F479" s="60">
+        <v>946.66</v>
+      </c>
+      <c r="G479" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="A480" s="13" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" ht="15.75">
-      <c r="A480" s="13" t="s">
-        <v>523</v>
-      </c>
       <c r="B480" s="14" t="s">
-        <v>524</v>
+        <v>387</v>
       </c>
       <c r="C480" s="18" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="E480" s="4">
-        <v>45841</v>
-      </c>
-      <c r="F480" s="60">
-        <v>946.66</v>
+        <v>45824</v>
+      </c>
+      <c r="F480" s="52">
+        <f>8636.77+196.57</f>
+        <v>8833.34</v>
       </c>
       <c r="G480" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:8">
       <c r="A481" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B481" s="14" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="C481" s="18" t="s">
         <v>16</v>
@@ -12026,19 +12454,19 @@
         <v>45824</v>
       </c>
       <c r="F481" s="52">
-        <f>8636.77+196.57</f>
-        <v>8833.34</v>
+        <f>8703.43+196.57</f>
+        <v>8900</v>
       </c>
       <c r="G481" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:8">
       <c r="A482" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B482" s="14" t="s">
-        <v>344</v>
+        <v>523</v>
       </c>
       <c r="C482" s="18" t="s">
         <v>16</v>
@@ -12054,12 +12482,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:8">
       <c r="A483" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B483" s="14" t="s">
-        <v>526</v>
+        <v>392</v>
       </c>
       <c r="C483" s="18" t="s">
         <v>16</v>
@@ -12068,19 +12496,19 @@
         <v>45824</v>
       </c>
       <c r="F483" s="52">
-        <f>8703.43+196.57</f>
-        <v>8900</v>
+        <f>8303.43+196.57</f>
+        <v>8500</v>
       </c>
       <c r="G483" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:8">
       <c r="A484" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>393</v>
+        <v>241</v>
       </c>
       <c r="C484" s="18" t="s">
         <v>16</v>
@@ -12089,19 +12517,19 @@
         <v>45824</v>
       </c>
       <c r="F484" s="52">
-        <f>8303.43+196.57</f>
-        <v>8500</v>
+        <f>9853.43+196.57</f>
+        <v>10050</v>
       </c>
       <c r="G484" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:8">
       <c r="A485" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B485" s="14" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C485" s="18" t="s">
         <v>16</v>
@@ -12110,19 +12538,19 @@
         <v>45824</v>
       </c>
       <c r="F485" s="52">
-        <f>9853.43+196.57</f>
-        <v>10050</v>
+        <f>10136.77+196.57</f>
+        <v>10333.34</v>
       </c>
       <c r="G485" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:8">
       <c r="A486" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B486" s="14" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="C486" s="18" t="s">
         <v>16</v>
@@ -12131,19 +12559,19 @@
         <v>45824</v>
       </c>
       <c r="F486" s="52">
-        <f>10136.77+196.57</f>
-        <v>10333.34</v>
+        <f>10670.1+196.57</f>
+        <v>10866.67</v>
       </c>
       <c r="G486" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:8">
       <c r="A487" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B487" s="14" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="C487" s="18" t="s">
         <v>16</v>
@@ -12152,40 +12580,40 @@
         <v>45824</v>
       </c>
       <c r="F487" s="52">
-        <f>10670.1+196.57</f>
-        <v>10866.67</v>
-      </c>
-      <c r="G487" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7">
-      <c r="A488" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="B488" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C488" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E488" s="4">
-        <v>45824</v>
-      </c>
-      <c r="F488" s="52">
         <f>9936.77+196.57</f>
         <v>10133.34</v>
       </c>
+      <c r="G487" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B488" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E488" s="4">
+        <v>45901</v>
+      </c>
+      <c r="F488" s="55">
+        <f>88785/12</f>
+        <v>7398.75</v>
+      </c>
       <c r="G488" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:8">
       <c r="A489" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B489" s="14" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>40</v>
@@ -12193,20 +12621,20 @@
       <c r="E489" s="4">
         <v>45901</v>
       </c>
-      <c r="F489" s="55">
-        <f>88785/12</f>
-        <v>7398.75</v>
+      <c r="F489">
+        <f>16610/12</f>
+        <v>1384.1666666666667</v>
       </c>
       <c r="G489" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:8">
       <c r="A490" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B490" s="14" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>40</v>
@@ -12215,83 +12643,83 @@
         <v>45901</v>
       </c>
       <c r="F490">
-        <f>16610/12</f>
-        <v>1384.1666666666667</v>
-      </c>
-      <c r="G490" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7">
-      <c r="A491" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="B491" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E491" s="4">
-        <v>45901</v>
-      </c>
-      <c r="F491">
         <f>48110/12</f>
         <v>4009.1666666666665</v>
       </c>
+      <c r="G490" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" ht="21.75">
+      <c r="A491" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B491" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E491" s="4">
+        <v>45848</v>
+      </c>
+      <c r="F491" s="68">
+        <v>693</v>
+      </c>
       <c r="G491" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="21.75">
+    <row r="492" spans="1:8" ht="84.75">
       <c r="A492" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B492" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B492" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C492" s="2" t="s">
+      <c r="E492" s="4">
+        <v>45901</v>
+      </c>
+      <c r="F492" s="74">
+        <v>550364.37999999954</v>
+      </c>
+      <c r="G492" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" ht="84.75">
+      <c r="A493" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B493" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E493" s="4">
+        <v>45930</v>
+      </c>
+      <c r="F493" s="74">
+        <v>550364.37999999954</v>
+      </c>
+      <c r="G493" t="s">
+        <v>82</v>
+      </c>
+      <c r="H493" s="75"/>
+    </row>
+    <row r="494" spans="1:8" ht="63.75">
+      <c r="A494" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="E492" s="4">
-        <v>45848</v>
-      </c>
-      <c r="F492" s="68">
-        <v>693</v>
-      </c>
-      <c r="G492" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7" ht="84.75">
-      <c r="A493" s="13" t="s">
+      <c r="B494" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="B493" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C493" s="2" t="s">
+      <c r="C494" s="29" t="s">
         <v>531</v>
-      </c>
-      <c r="E493" s="4">
-        <v>45923</v>
-      </c>
-      <c r="F493" s="63">
-        <v>45863.698333333297</v>
-      </c>
-      <c r="G493" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7" ht="63.75">
-      <c r="A494" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="B494" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="C494" s="29" t="s">
-        <v>534</v>
       </c>
       <c r="E494" s="4">
         <v>45842</v>
@@ -12315,7 +12743,7 @@
   <conditionalFormatting sqref="A423:A426">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:A112">
+  <conditionalFormatting sqref="A106:A111">
     <cfRule type="duplicateValues" dxfId="6" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:A270">

--- a/planilha_auxiliar.xlsx
+++ b/planilha_auxiliar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dpudef-my.sharepoint.com/personal/eduardo_junior_dpu_def_br/Documents/Códigos/Orçamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{02C9326C-AC33-40B5-BFCD-E8E11BB02F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C594F79-074E-46AB-97E3-F4C713163F31}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{02C9326C-AC33-40B5-BFCD-E8E11BB02F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D63887D-468B-42CC-B15D-66EDDD2A2478}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2082,7 +2082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2267,6 +2267,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2686,10 +2692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I494"/>
+  <dimension ref="A1:I495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:XFD494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12731,6 +12737,12 @@
       <c r="G494" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" s="76"/>
+      <c r="B495" s="76"/>
+      <c r="C495" s="77"/>
+      <c r="E495" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12761,7 +12773,7 @@
   <conditionalFormatting sqref="A445:A452">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A494">
+  <conditionalFormatting sqref="A494:A495">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planilha_auxiliar.xlsx
+++ b/planilha_auxiliar.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dpudef-my.sharepoint.com/personal/eduardo_junior_dpu_def_br/Documents/Códigos/Orçamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{02C9326C-AC33-40B5-BFCD-E8E11BB02F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D63887D-468B-42CC-B15D-66EDDD2A2478}"/>
+  <xr:revisionPtr revIDLastSave="1107" documentId="8_{02C9326C-AC33-40B5-BFCD-E8E11BB02F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E33F93D-2542-4E70-98A0-4EE3C340BD23}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="645">
   <si>
     <t>CONTRATO</t>
   </si>
@@ -1706,18 +1703,355 @@
 OCORRERÁ EM BELÉM, NO ESTADO DO PARÁ, DO DIA 10 A 21 DE NOVEMBRO DE 2025</t>
   </si>
   <si>
-    <t>0121/2025</t>
-  </si>
-  <si>
-    <t>BAIXADA FLUMINENSE
-BELO HORIZONTE
-JUIZ DE FORA
-NITERÓI
-RIO DE JANEIRO
-VITÓRIA</t>
-  </si>
-  <si>
-    <t>FORNECIMENTO DE COPOS PLÁSTICOS, VISANDO SUPRIR A DEMANDA DAS UNIDADES DA DPU NA REGIÃO SUDESTE</t>
+    <t>0083/2025</t>
+  </si>
+  <si>
+    <t>AUXILIAR ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>CUIABÁ
+RONDONÓPOLIS</t>
+  </si>
+  <si>
+    <t>0084/2025</t>
+  </si>
+  <si>
+    <t>0014/2025</t>
+  </si>
+  <si>
+    <t>AGENTE DE PORTARIA 12x26 DIURNO</t>
+  </si>
+  <si>
+    <t>0009/2025</t>
+  </si>
+  <si>
+    <t>0174/2021</t>
+  </si>
+  <si>
+    <t>0053/2023</t>
+  </si>
+  <si>
+    <t>0151/2021</t>
+  </si>
+  <si>
+    <t>0022/2020</t>
+  </si>
+  <si>
+    <t>0169/2022</t>
+  </si>
+  <si>
+    <t>0049/2025</t>
+  </si>
+  <si>
+    <t>AGENTE DE PORTARIA 12x36 DIURNO</t>
+  </si>
+  <si>
+    <t>0159/2015</t>
+  </si>
+  <si>
+    <t>Reajustado 2023</t>
+  </si>
+  <si>
+    <t>aumento do valor</t>
+  </si>
+  <si>
+    <t>0047/2025</t>
+  </si>
+  <si>
+    <t>0096/2021</t>
+  </si>
+  <si>
+    <t>0048/2025</t>
+  </si>
+  <si>
+    <t>0130/2013</t>
+  </si>
+  <si>
+    <t>0046/2025</t>
+  </si>
+  <si>
+    <t>0097/2017</t>
+  </si>
+  <si>
+    <t>0052/2025</t>
+  </si>
+  <si>
+    <t>0160/2020</t>
+  </si>
+  <si>
+    <t>0045/2025</t>
+  </si>
+  <si>
+    <t>1001/2025</t>
+  </si>
+  <si>
+    <t>0169/2014</t>
+  </si>
+  <si>
+    <t>0044/2025</t>
+  </si>
+  <si>
+    <t>0131/2013</t>
+  </si>
+  <si>
+    <t>0019/2014</t>
+  </si>
+  <si>
+    <t>0069/2025</t>
+  </si>
+  <si>
+    <t>AGENTE DE PORTARIA 12X36 NOTURNO</t>
+  </si>
+  <si>
+    <t>0064/2025</t>
+  </si>
+  <si>
+    <t>0063/2025</t>
+  </si>
+  <si>
+    <t>0068/2025</t>
+  </si>
+  <si>
+    <t>0067/2025</t>
+  </si>
+  <si>
+    <t>1003/2025</t>
+  </si>
+  <si>
+    <t>AGENTE DE PORTRIA 12X36 NOTURNO</t>
+  </si>
+  <si>
+    <t>0066/2025</t>
+  </si>
+  <si>
+    <t>0049/2016</t>
+  </si>
+  <si>
+    <t>0065/2025</t>
+  </si>
+  <si>
+    <t>AGENTE DE PORTARIA 12X36 DIURNO</t>
+  </si>
+  <si>
+    <t>0067/2015</t>
+  </si>
+  <si>
+    <t>0130/2014</t>
+  </si>
+  <si>
+    <t>0148/2014</t>
+  </si>
+  <si>
+    <t>0129/2013</t>
+  </si>
+  <si>
+    <t>0026/2008</t>
+  </si>
+  <si>
+    <t>0105/2017</t>
+  </si>
+  <si>
+    <t>0138/2019</t>
+  </si>
+  <si>
+    <t>0088/2025</t>
+  </si>
+  <si>
+    <t>0018/2014</t>
+  </si>
+  <si>
+    <t>0088/2009</t>
+  </si>
+  <si>
+    <t>0034/2014</t>
+  </si>
+  <si>
+    <t>0017/2016</t>
+  </si>
+  <si>
+    <t>0245/2022</t>
+  </si>
+  <si>
+    <t>0061/2025</t>
+  </si>
+  <si>
+    <t>0101/2017</t>
+  </si>
+  <si>
+    <t>0144/2016</t>
+  </si>
+  <si>
+    <t>0070/2025</t>
+  </si>
+  <si>
+    <t>0089/2017</t>
+  </si>
+  <si>
+    <t>0082/2025</t>
+  </si>
+  <si>
+    <t>0080/2025</t>
+  </si>
+  <si>
+    <t>valor Inicial</t>
+  </si>
+  <si>
+    <t>0081/2025</t>
+  </si>
+  <si>
+    <t>0047/2012</t>
+  </si>
+  <si>
+    <t>0123/2016</t>
+  </si>
+  <si>
+    <t>0124/2018</t>
+  </si>
+  <si>
+    <t>0020/2016</t>
+  </si>
+  <si>
+    <t>0038/2019</t>
+  </si>
+  <si>
+    <t>supressão</t>
+  </si>
+  <si>
+    <t>0029/2008</t>
+  </si>
+  <si>
+    <t>0009/2014</t>
+  </si>
+  <si>
+    <t>0087/2018</t>
+  </si>
+  <si>
+    <t>0005/2022</t>
+  </si>
+  <si>
+    <t>0146/2011</t>
+  </si>
+  <si>
+    <t>Reajustado 2020</t>
+  </si>
+  <si>
+    <t>0007/2019</t>
+  </si>
+  <si>
+    <t>0046/2014</t>
+  </si>
+  <si>
+    <t>0073/2014</t>
+  </si>
+  <si>
+    <t>0075/2025</t>
+  </si>
+  <si>
+    <t>AGENTE DE PORTARIA 44H</t>
+  </si>
+  <si>
+    <t>Solicitação repactuação 2025</t>
+  </si>
+  <si>
+    <t>0076/2025</t>
+  </si>
+  <si>
+    <t>0074/2025</t>
+  </si>
+  <si>
+    <t>0073/2025</t>
+  </si>
+  <si>
+    <t>RIBEIRÃO PRETO</t>
+  </si>
+  <si>
+    <t>0097/2016</t>
+  </si>
+  <si>
+    <t>redução</t>
+  </si>
+  <si>
+    <t>0081/2014</t>
+  </si>
+  <si>
+    <t>0080/2014</t>
+  </si>
+  <si>
+    <t>0168/2022</t>
+  </si>
+  <si>
+    <t>0062/2023</t>
+  </si>
+  <si>
+    <t>0087/2010</t>
+  </si>
+  <si>
+    <t>Repactuado 2022</t>
+  </si>
+  <si>
+    <t>0029/2014</t>
+  </si>
+  <si>
+    <t>0101/2016</t>
+  </si>
+  <si>
+    <t>0036/2016</t>
+  </si>
+  <si>
+    <t>0087/2024</t>
+  </si>
+  <si>
+    <t>0116/2015</t>
+  </si>
+  <si>
+    <t>0104/2016</t>
+  </si>
+  <si>
+    <t>0013/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAÇÃO DE IMÓVEL </t>
+  </si>
+  <si>
+    <t>0205/2022</t>
+  </si>
+  <si>
+    <t>0071/2015</t>
+  </si>
+  <si>
+    <t>0079/2015</t>
+  </si>
+  <si>
+    <t>0149/2011</t>
+  </si>
+  <si>
+    <t>0084/2013</t>
+  </si>
+  <si>
+    <t>0009/2017</t>
+  </si>
+  <si>
+    <t>0109/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SÃO PAULO </t>
+  </si>
+  <si>
+    <t>LOCAÇÃO DE IMÓVEL
+COMPARTILHADO COM INMETRO</t>
+  </si>
+  <si>
+    <t>0067/2019</t>
+  </si>
+  <si>
+    <t>LOCAÇÃO DE IMÓVEL
+COMPARTILHADAO COM M.T.E.</t>
+  </si>
+  <si>
+    <t>0236/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO DE JANEIRO </t>
   </si>
 </sst>
 </file>
@@ -1728,7 +2062,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1929,6 +2263,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFE74C3C"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1956,7 +2319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2077,12 +2440,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2267,18 +2641,211 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Planilha1" xfId="1" xr:uid="{69AC0CA7-1DDD-4B79-B1B8-7DAFBD243DEF}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2390,19 +2957,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Planilha2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2692,10 +3246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I495"/>
+  <dimension ref="A1:I761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:XFD494"/>
+    <sheetView tabSelected="1" topLeftCell="A573" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G586" sqref="G586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12717,63 +13271,5422 @@
       </c>
       <c r="H493" s="75"/>
     </row>
-    <row r="494" spans="1:8" ht="63.75">
-      <c r="A494" s="14" t="s">
+    <row r="494" spans="1:8">
+      <c r="A494" s="13" t="s">
         <v>529</v>
       </c>
       <c r="B494" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C494" s="29" t="s">
+      <c r="E494" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F494" s="55">
+        <v>45455.26</v>
+      </c>
+      <c r="G494" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" ht="21.75">
+      <c r="A495" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B495" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="E494" s="4">
-        <v>45842</v>
-      </c>
-      <c r="F494">
-        <f>36590/12</f>
-        <v>3049.1666666666665</v>
-      </c>
-      <c r="G494" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
-      <c r="A495" s="76"/>
-      <c r="B495" s="76"/>
-      <c r="C495" s="77"/>
-      <c r="E495" s="4"/>
+      <c r="C495" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E495" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F495" s="55">
+        <f>172975.49-F496</f>
+        <v>162790.44999999998</v>
+      </c>
+      <c r="G495" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" ht="21.75">
+      <c r="A496" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B496" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E496" s="4">
+        <v>45773</v>
+      </c>
+      <c r="F496">
+        <v>10185.040000000001</v>
+      </c>
+      <c r="G496" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
+      <c r="A497" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B497" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E497" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F497" s="55">
+        <f>76474.88-F500</f>
+        <v>66754.44</v>
+      </c>
+      <c r="G497" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
+      <c r="A498" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B498" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E498" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F498" s="55">
+        <f>56914.21-F499</f>
+        <v>47375.88</v>
+      </c>
+      <c r="G498" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
+      <c r="A499" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B499" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E499" s="4">
+        <v>45986</v>
+      </c>
+      <c r="F499" s="52">
+        <v>9538.33</v>
+      </c>
+      <c r="G499" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7">
+      <c r="A500" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B500" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E500" s="4">
+        <v>45986</v>
+      </c>
+      <c r="F500">
+        <v>9720.44</v>
+      </c>
+      <c r="G500" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7">
+      <c r="A501" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B501" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E501" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F501" s="55">
+        <v>58427.63</v>
+      </c>
+      <c r="G501" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7">
+      <c r="A502" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B502" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E502" s="4">
+        <v>45759</v>
+      </c>
+      <c r="F502" s="55">
+        <v>16367.24</v>
+      </c>
+      <c r="G502" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7">
+      <c r="A503" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B503" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E503" s="4">
+        <v>45691</v>
+      </c>
+      <c r="F503" s="76">
+        <v>2075479.07</v>
+      </c>
+      <c r="G503" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" ht="14.25">
+      <c r="A504" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B504" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E504" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F504" s="49">
+        <v>641689.61</v>
+      </c>
+      <c r="G504" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" ht="15.75">
+      <c r="A505" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B505" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E505" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F505" s="57">
+        <v>43266.52</v>
+      </c>
+      <c r="G505" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" ht="15.75">
+      <c r="A506" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B506" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E506" s="4">
+        <v>45759</v>
+      </c>
+      <c r="F506" s="57">
+        <v>45636.31</v>
+      </c>
+      <c r="G506" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" ht="15.75">
+      <c r="A507" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B507" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E507" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F507" s="57">
+        <v>34259.040000000001</v>
+      </c>
+      <c r="G507" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" ht="15.75">
+      <c r="A508" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B508" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E508" s="4">
+        <v>45748</v>
+      </c>
+      <c r="F508" s="57">
+        <v>36135.47</v>
+      </c>
+      <c r="G508" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" ht="15.75">
+      <c r="A509" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B509" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E509" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F509" s="57">
+        <v>12472.02</v>
+      </c>
+      <c r="G509" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" ht="15.75">
+      <c r="A510" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B510" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E510" s="4">
+        <v>45782</v>
+      </c>
+      <c r="F510" s="57">
+        <v>13161.69</v>
+      </c>
+      <c r="G510" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" ht="15.75">
+      <c r="A511" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B511" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E511" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F511" s="57">
+        <v>28380.639999999999</v>
+      </c>
+      <c r="G511" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" ht="15.75">
+      <c r="A512" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B512" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E512" s="4">
+        <v>45836</v>
+      </c>
+      <c r="F512" s="57">
+        <v>29890.39</v>
+      </c>
+      <c r="G512" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7">
+      <c r="A513" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B513" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C513" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="E513" s="4">
+        <v>45778</v>
+      </c>
+      <c r="F513" s="55">
+        <f>78335.15-F517</f>
+        <v>69529.73</v>
+      </c>
+      <c r="G513" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7">
+      <c r="A514" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B514" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C514" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="E514" s="4">
+        <v>45778</v>
+      </c>
+      <c r="F514">
+        <f>124975.89-F516</f>
+        <v>107966.31</v>
+      </c>
+      <c r="G514" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
+      <c r="A515" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B515" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C515" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="E515" s="4">
+        <v>45778</v>
+      </c>
+      <c r="F515">
+        <f>64302.28-F518</f>
+        <v>55161.159999999996</v>
+      </c>
+      <c r="G515" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B516" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E516" s="4">
+        <v>45858</v>
+      </c>
+      <c r="F516">
+        <f>8134.44+8875.14</f>
+        <v>17009.579999999998</v>
+      </c>
+      <c r="G516" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
+      <c r="A517" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B517" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E517" s="4">
+        <v>45858</v>
+      </c>
+      <c r="F517" s="52">
+        <v>8805.42</v>
+      </c>
+      <c r="G517" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7">
+      <c r="A518" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B518" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E518" s="4">
+        <v>45858</v>
+      </c>
+      <c r="F518" s="77">
+        <v>9141.1200000000008</v>
+      </c>
+      <c r="G518" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7">
+      <c r="A519" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B519" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C519" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D519" s="4">
+        <v>45806</v>
+      </c>
+      <c r="G519" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7">
+      <c r="A520" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B520" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C520" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D520" s="4">
+        <v>45806</v>
+      </c>
+      <c r="G520" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
+      <c r="A521" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B521" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C521" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D521" s="4">
+        <v>45806</v>
+      </c>
+      <c r="G521" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
+      <c r="A522" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B522" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D522" s="4">
+        <v>45806</v>
+      </c>
+      <c r="G522" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7">
+      <c r="A523" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B523" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D523" s="4">
+        <v>45806</v>
+      </c>
+      <c r="G523" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7">
+      <c r="A524" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B524" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D524" s="4">
+        <v>45806</v>
+      </c>
+      <c r="G524" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" ht="15.75">
+      <c r="A525" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="B525" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C525" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E525" s="4">
+        <v>45225</v>
+      </c>
+      <c r="F525" s="56">
+        <v>8586.43</v>
+      </c>
+      <c r="G525" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" ht="15.75">
+      <c r="A526" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="B526" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C526" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E526" s="4">
+        <v>45956</v>
+      </c>
+      <c r="F526" s="56">
+        <v>10000</v>
+      </c>
+      <c r="G526" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7">
+      <c r="A527" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B527" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C527" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E527" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F527" s="55">
+        <f>89547.85-F528</f>
+        <v>80920.19</v>
+      </c>
+      <c r="G527" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
+      <c r="A528" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B528" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C528" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E528" s="4">
+        <v>45885</v>
+      </c>
+      <c r="F528" s="52">
+        <v>8627.66</v>
+      </c>
+      <c r="G528" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" ht="15.75">
+      <c r="A529" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B529" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C529" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E529" s="4">
+        <v>45493</v>
+      </c>
+      <c r="F529" s="57">
+        <v>27285.95</v>
+      </c>
+      <c r="G529" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B530" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C530" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E530" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F530">
+        <f>72685.34-F531</f>
+        <v>48717.729999999996</v>
+      </c>
+      <c r="G530" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B531" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C531" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E531" s="4">
+        <v>45784</v>
+      </c>
+      <c r="F531">
+        <f>7520.53+16447.08</f>
+        <v>23967.61</v>
+      </c>
+      <c r="G531" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="B532" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E532" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F532">
+        <v>28800</v>
+      </c>
+      <c r="G532" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B533" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C533" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E533" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F533" s="78">
+        <f>67519.03-F534</f>
+        <v>58472.27</v>
+      </c>
+      <c r="G533" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B534" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C534" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E534" s="4">
+        <v>45885</v>
+      </c>
+      <c r="F534" s="52">
+        <v>9046.76</v>
+      </c>
+      <c r="G534" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" ht="15.75">
+      <c r="A535" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B535" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E535" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F535" s="57">
+        <v>56340.39</v>
+      </c>
+      <c r="G535" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" ht="15.75">
+      <c r="A536" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B536" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E536" s="4">
+        <v>45856</v>
+      </c>
+      <c r="F536" s="57">
+        <v>59355.26</v>
+      </c>
+      <c r="G536" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B537" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C537" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E537" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F537">
+        <f>88925.25-F538</f>
+        <v>79056.59</v>
+      </c>
+      <c r="G537" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B538" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C538" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E538" s="4">
+        <v>45714</v>
+      </c>
+      <c r="F538" s="52">
+        <v>9868.66</v>
+      </c>
+      <c r="G538" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" ht="15.75">
+      <c r="A539" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B539" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E539" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F539" s="57">
+        <v>27443.29</v>
+      </c>
+      <c r="G539" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" ht="15.75">
+      <c r="A540" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B540" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E540" s="4">
+        <v>45917</v>
+      </c>
+      <c r="F540" s="56">
+        <v>26104.02</v>
+      </c>
+      <c r="G540" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B541" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C541" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="E541" s="4">
+        <v>45708</v>
+      </c>
+      <c r="F541" s="55">
+        <v>71704.039999999994</v>
+      </c>
+      <c r="G541" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B542" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C542" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="E542" s="4">
+        <v>45870</v>
+      </c>
+      <c r="F542" s="55">
+        <v>71704.039999999994</v>
+      </c>
+      <c r="G542" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="B543" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E543" s="4">
+        <v>45932</v>
+      </c>
+      <c r="F543" s="55">
+        <v>71925.960000000006</v>
+      </c>
+      <c r="G543" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="15.75">
+      <c r="A544" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B544" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E544" s="4">
+        <v>45655</v>
+      </c>
+      <c r="F544" s="57">
+        <v>30906.83</v>
+      </c>
+      <c r="G544" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="A545" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="B545" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C545" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E545" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F545" s="55">
+        <f>66293.19-F546</f>
+        <v>58092.25</v>
+      </c>
+      <c r="G545" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
+      <c r="A546" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="B546" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C546" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="E546" s="4">
+        <v>45773</v>
+      </c>
+      <c r="F546" s="52">
+        <v>8200.94</v>
+      </c>
+      <c r="G546" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" ht="15.75">
+      <c r="A547" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B547" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E547" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F547" s="54">
+        <v>29342.720000000001</v>
+      </c>
+      <c r="G547" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="15.75">
+      <c r="A548" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B548" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E548" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F548" s="56">
+        <v>22592.25</v>
+      </c>
+      <c r="G548" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7">
+      <c r="A549" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="B549" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C549" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E549" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F549" s="55">
+        <v>56341.78</v>
+      </c>
+      <c r="G549" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7">
+      <c r="A550" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="B550" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C550" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E550" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F550">
+        <f>122691.45-F552</f>
+        <v>96284.31</v>
+      </c>
+      <c r="G550" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7">
+      <c r="A551" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="B551" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C551" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E551" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F551">
+        <f>58097.61-F553</f>
+        <v>48575.01</v>
+      </c>
+      <c r="G551" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7">
+      <c r="A552" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="B552" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C552" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E552" s="4">
+        <v>45763</v>
+      </c>
+      <c r="F552">
+        <f>8264.3+8633.24+9509.6</f>
+        <v>26407.14</v>
+      </c>
+      <c r="G552" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7">
+      <c r="A553" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="B553" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C553" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E553" s="4">
+        <v>45763</v>
+      </c>
+      <c r="F553" s="52">
+        <v>9522.6</v>
+      </c>
+      <c r="G553" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7">
+      <c r="A554" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B554" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E554" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F554" s="79">
+        <f>76566.05-F556</f>
+        <v>63158.44</v>
+      </c>
+      <c r="G554" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7">
+      <c r="A555" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B555" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E555" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F555" s="79">
+        <f>92061.77-F557</f>
+        <v>73157.760000000009</v>
+      </c>
+      <c r="G555" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7">
+      <c r="A556" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B556" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E556" s="4">
+        <v>45742</v>
+      </c>
+      <c r="F556">
+        <f>4028.78+9378.83</f>
+        <v>13407.61</v>
+      </c>
+      <c r="G556" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7">
+      <c r="A557" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B557" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E557" s="4">
+        <v>45742</v>
+      </c>
+      <c r="F557" s="66">
+        <v>18904.009999999998</v>
+      </c>
+      <c r="G557" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7">
+      <c r="A558" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B558" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E558" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F558" s="55">
+        <f>130946.73-F560</f>
+        <v>114322.95999999999</v>
+      </c>
+      <c r="G558" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7">
+      <c r="A559" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B559" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E559" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F559" s="55">
+        <f>50650.81-F561</f>
+        <v>41975.06</v>
+      </c>
+      <c r="G559" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7">
+      <c r="A560" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B560" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E560" s="4">
+        <v>45751</v>
+      </c>
+      <c r="F560">
+        <f>7948+8675.77</f>
+        <v>16623.77</v>
+      </c>
+      <c r="G560" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
+      <c r="A561" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B561" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E561" s="4">
+        <v>45751</v>
+      </c>
+      <c r="F561" s="66">
+        <v>8675.75</v>
+      </c>
+      <c r="G561" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
+      <c r="A562" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B562" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C562" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E562" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F562" s="55">
+        <f>46779.84-F565</f>
+        <v>39128.259999999995</v>
+      </c>
+      <c r="G562" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7">
+      <c r="A563" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B563" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C563" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E563" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F563" s="55">
+        <v>61691.8</v>
+      </c>
+      <c r="G563" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7">
+      <c r="A564" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B564" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C564" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E564" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F564">
+        <f>46299.75-F566</f>
+        <v>30566.42</v>
+      </c>
+      <c r="G564" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7">
+      <c r="A565" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B565" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C565" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E565" s="4">
+        <v>45762</v>
+      </c>
+      <c r="F565" s="52">
+        <v>7651.58</v>
+      </c>
+      <c r="G565" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7">
+      <c r="A566" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B566" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C566" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E566" s="4">
+        <v>45762</v>
+      </c>
+      <c r="F566">
+        <f>7983.33+7750</f>
+        <v>15733.33</v>
+      </c>
+      <c r="G566" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7">
+      <c r="A567" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B567" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E567" s="4">
+        <v>45722</v>
+      </c>
+      <c r="F567">
+        <f>58584.45-F569</f>
+        <v>50394.13</v>
+      </c>
+      <c r="G567" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7">
+      <c r="A568" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B568" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E568" s="4">
+        <v>45722</v>
+      </c>
+      <c r="F568" s="78">
+        <f>62818.12-F570</f>
+        <v>54560.880000000005</v>
+      </c>
+      <c r="G568" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7">
+      <c r="A569" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B569" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C569" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E569" s="4">
+        <v>45748</v>
+      </c>
+      <c r="F569" s="66">
+        <v>8190.32</v>
+      </c>
+      <c r="G569" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7">
+      <c r="A570" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B570" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C570" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E570" s="4">
+        <v>45748</v>
+      </c>
+      <c r="F570" s="66">
+        <v>8257.24</v>
+      </c>
+      <c r="G570" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7">
+      <c r="A571" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B571" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E571" s="4">
+        <v>45931</v>
+      </c>
+      <c r="F571">
+        <f>58584.45-F573</f>
+        <v>50394.13</v>
+      </c>
+      <c r="G571" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7">
+      <c r="A572" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B572" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E572" s="4">
+        <v>45931</v>
+      </c>
+      <c r="F572" s="78">
+        <f>62818.12-F574</f>
+        <v>54560.880000000005</v>
+      </c>
+      <c r="G572" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7">
+      <c r="A573" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B573" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C573" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E573" s="4">
+        <v>45931</v>
+      </c>
+      <c r="F573" s="66">
+        <v>8190.32</v>
+      </c>
+      <c r="G573" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7">
+      <c r="A574" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B574" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C574" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E574" s="4">
+        <v>45931</v>
+      </c>
+      <c r="F574" s="66">
+        <v>8257.24</v>
+      </c>
+      <c r="G574" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7">
+      <c r="A575" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B575" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E575" s="4">
+        <v>45932</v>
+      </c>
+      <c r="F575" s="78">
+        <f>53445.79-F576</f>
+        <v>45778.7</v>
+      </c>
+      <c r="G575" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7">
+      <c r="A576" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B576" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E576" s="4">
+        <v>45932</v>
+      </c>
+      <c r="F576" s="52">
+        <v>7667.09</v>
+      </c>
+      <c r="G576" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7">
+      <c r="A577" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B577" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E577" s="4">
+        <v>45932</v>
+      </c>
+      <c r="F577" s="78">
+        <f>71695.89-F578</f>
+        <v>63849.599999999999</v>
+      </c>
+      <c r="G577" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7">
+      <c r="A578" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B578" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E578" s="4">
+        <v>45932</v>
+      </c>
+      <c r="F578" s="52">
+        <v>7846.29</v>
+      </c>
+      <c r="G578" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7">
+      <c r="A579" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B579" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D579" s="4">
+        <v>45932</v>
+      </c>
+      <c r="G579" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7">
+      <c r="A580" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B580" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D580" s="4">
+        <v>45932</v>
+      </c>
+      <c r="G580" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7">
+      <c r="A581" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B581" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D581" s="4">
+        <v>45932</v>
+      </c>
+      <c r="G581" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7">
+      <c r="A582" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B582" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D582" s="4">
+        <v>45932</v>
+      </c>
+      <c r="G582" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7">
+      <c r="A583" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="B583" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C583" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="E583" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F583" s="55">
+        <f>87225.69-F584</f>
+        <v>72474.930000000008</v>
+      </c>
+      <c r="G583" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7">
+      <c r="A584" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="B584" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C584" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E584" s="4">
+        <v>45782</v>
+      </c>
+      <c r="F584" s="52">
+        <f>7045.28+7705.48</f>
+        <v>14750.759999999998</v>
+      </c>
+      <c r="G584" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" ht="15.75">
+      <c r="A585" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="B585" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C585" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E585" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F585" s="56">
+        <v>46709.08</v>
+      </c>
+      <c r="G585" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" ht="15.75">
+      <c r="A586" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="B586" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C586" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E586" s="4">
+        <v>45731</v>
+      </c>
+      <c r="F586" s="57">
+        <v>49071.45</v>
+      </c>
+      <c r="G586" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7">
+      <c r="A587" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="B587" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C587" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E587" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F587" s="78">
+        <f>74119.59-F589</f>
+        <v>67159.59</v>
+      </c>
+      <c r="G587" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7">
+      <c r="A588" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="B588" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C588" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E588" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F588" s="78">
+        <f>63416.64-F590</f>
+        <v>55666.64</v>
+      </c>
+      <c r="G588" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7">
+      <c r="A589" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="B589" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C589" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="E589" s="4">
+        <v>45762</v>
+      </c>
+      <c r="F589" s="52">
+        <v>6960</v>
+      </c>
+      <c r="G589" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7">
+      <c r="A590" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="B590" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C590" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E590" s="4">
+        <v>45762</v>
+      </c>
+      <c r="F590" s="52">
+        <v>7750</v>
+      </c>
+      <c r="G590" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7">
+      <c r="A591" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B591" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C591" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E591" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F591">
+        <v>10500</v>
+      </c>
+      <c r="G591" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" ht="15.75">
+      <c r="A592" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="B592" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E592" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F592" s="57">
+        <v>9058.09</v>
+      </c>
+      <c r="G592" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" ht="15.75">
+      <c r="A593" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="B593" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E593" s="4">
+        <v>45808</v>
+      </c>
+      <c r="F593" s="57">
+        <v>9058.09</v>
+      </c>
+      <c r="G593" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" ht="15.75">
+      <c r="A594" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="B594" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E594" s="4">
+        <v>45621</v>
+      </c>
+      <c r="F594" s="56">
+        <v>11624.18</v>
+      </c>
+      <c r="G594" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" ht="15.75">
+      <c r="A595" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="B595" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E595" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F595" s="56">
+        <v>10691.94</v>
+      </c>
+      <c r="G595" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" ht="15.75">
+      <c r="A596" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B596" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E596" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F596" s="56">
+        <v>37000</v>
+      </c>
+      <c r="G596" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" ht="15.75">
+      <c r="A597" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="B597" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E597" s="4">
+        <v>45590</v>
+      </c>
+      <c r="F597" s="56">
+        <v>73655.47</v>
+      </c>
+      <c r="G597" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" ht="15.75">
+      <c r="A598" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B598" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E598" s="4">
+        <v>45607</v>
+      </c>
+      <c r="F598" s="56">
+        <v>52593.36</v>
+      </c>
+      <c r="G598" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" ht="15.75">
+      <c r="A599" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B599" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E599" s="4">
+        <v>45912</v>
+      </c>
+      <c r="F599" s="56">
+        <v>52593.36</v>
+      </c>
+      <c r="G599" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" ht="15.75">
+      <c r="A600" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B600" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E600" s="4">
+        <v>45707</v>
+      </c>
+      <c r="F600" s="56">
+        <v>33000</v>
+      </c>
+      <c r="G600" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" ht="15.75">
+      <c r="A601" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="B601" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E601" s="4">
+        <v>45335</v>
+      </c>
+      <c r="F601" s="56">
+        <v>13567.36</v>
+      </c>
+      <c r="G601" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" ht="15.75">
+      <c r="A602" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="B602" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C602" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E602" s="4">
+        <v>45363</v>
+      </c>
+      <c r="F602" s="57">
+        <v>19292.46</v>
+      </c>
+      <c r="G602" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" ht="15.75">
+      <c r="A603" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B603" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E603" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F603" s="56">
+        <v>10016.94</v>
+      </c>
+      <c r="G603" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" ht="15.75">
+      <c r="A604" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B604" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E604" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F604" s="56">
+        <v>70465.48</v>
+      </c>
+      <c r="G604" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" ht="15.75">
+      <c r="A605" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B605" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E605" s="4">
+        <v>45672</v>
+      </c>
+      <c r="F605" s="57">
+        <v>73869.88</v>
+      </c>
+      <c r="G605" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" ht="15.75">
+      <c r="A606" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="B606" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E606" s="4">
+        <v>45989</v>
+      </c>
+      <c r="F606" s="57">
+        <v>74448.91</v>
+      </c>
+      <c r="G606" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7">
+      <c r="A607" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="B607" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E607" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F607" s="55">
+        <v>75448.899999999994</v>
+      </c>
+      <c r="G607" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7">
+      <c r="A608" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="B608" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E608" s="4">
+        <v>45762</v>
+      </c>
+      <c r="F608">
+        <f>3614.91+6958.46</f>
+        <v>10573.369999999999</v>
+      </c>
+      <c r="G608" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" ht="15.75">
+      <c r="A609" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B609" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E609" s="4">
+        <v>45511</v>
+      </c>
+      <c r="F609" s="56">
+        <v>73895.789999999994</v>
+      </c>
+      <c r="G609" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" ht="15.75">
+      <c r="A610" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="B610" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E610" s="4">
+        <v>45612</v>
+      </c>
+      <c r="F610" s="57">
+        <v>10351.09</v>
+      </c>
+      <c r="G610" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7">
+      <c r="A611" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B611" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C611" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E611" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F611" s="55">
+        <f>81816.58-F612</f>
+        <v>73724.92</v>
+      </c>
+      <c r="G611" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7">
+      <c r="A612" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B612" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C612" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E612" s="4">
+        <v>45762</v>
+      </c>
+      <c r="F612" s="52">
+        <v>8091.66</v>
+      </c>
+      <c r="G612" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" ht="15.75">
+      <c r="A613" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="B613" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C613" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E613" s="4">
+        <v>45492</v>
+      </c>
+      <c r="F613" s="57">
+        <v>11986.17</v>
+      </c>
+      <c r="G613" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7">
+      <c r="A614" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B614" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C614" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E614" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F614" s="55">
+        <f>76256.04-F619</f>
+        <v>63443.679999999993</v>
+      </c>
+      <c r="G614" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7">
+      <c r="A615" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B615" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C615" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E615" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F615" s="55">
+        <f>75796.31-F623</f>
+        <v>63064.08</v>
+      </c>
+      <c r="G615" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7">
+      <c r="A616" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B616" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C616" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E616" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F616" s="55">
+        <f>174164.17-F620</f>
+        <v>168966.51</v>
+      </c>
+      <c r="G616" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7">
+      <c r="A617" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B617" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C617" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E617" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F617" s="55">
+        <f>80792.48-F621</f>
+        <v>67794.509999999995</v>
+      </c>
+      <c r="G617" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7">
+      <c r="A618" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B618" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C618" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E618" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F618" s="55">
+        <f>91886.05-F622</f>
+        <v>78888.09</v>
+      </c>
+      <c r="G618" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7">
+      <c r="A619" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B619" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C619" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E619" s="4">
+        <v>45851</v>
+      </c>
+      <c r="F619" s="52">
+        <v>12812.36</v>
+      </c>
+      <c r="G619" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7">
+      <c r="A620" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B620" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C620" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E620" s="4">
+        <v>45851</v>
+      </c>
+      <c r="F620" s="52">
+        <v>5197.66</v>
+      </c>
+      <c r="G620" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7">
+      <c r="A621" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B621" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C621" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E621" s="4">
+        <v>45851</v>
+      </c>
+      <c r="F621" s="52">
+        <v>12997.97</v>
+      </c>
+      <c r="G621" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7">
+      <c r="A622" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B622" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C622" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E622" s="4">
+        <v>45851</v>
+      </c>
+      <c r="F622" s="52">
+        <v>12997.96</v>
+      </c>
+      <c r="G622" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7">
+      <c r="A623" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B623" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C623" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E623" s="4">
+        <v>45851</v>
+      </c>
+      <c r="F623" s="52">
+        <v>12732.23</v>
+      </c>
+      <c r="G623" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7">
+      <c r="A624" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B624" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C624" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E624" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F624" s="55">
+        <f>62933.31-F627</f>
+        <v>52099.99</v>
+      </c>
+      <c r="G624" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7">
+      <c r="A625" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B625" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C625" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E625" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F625" s="55">
+        <f>99066.53-F628</f>
+        <v>77733.289999999994</v>
+      </c>
+      <c r="G625" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7">
+      <c r="A626" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B626" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C626" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E626" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F626" s="55">
+        <f>68416.61-F629</f>
+        <v>57749.99</v>
+      </c>
+      <c r="G626" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7">
+      <c r="A627" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B627" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C627" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E627" s="4">
+        <v>45762</v>
+      </c>
+      <c r="F627" s="52">
+        <v>10833.32</v>
+      </c>
+      <c r="G627" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7">
+      <c r="A628" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B628" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C628" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E628" s="4">
+        <v>45762</v>
+      </c>
+      <c r="F628" s="52">
+        <v>21333.24</v>
+      </c>
+      <c r="G628" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7">
+      <c r="A629" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B629" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C629" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E629" s="4">
+        <v>45762</v>
+      </c>
+      <c r="F629" s="52">
+        <v>10666.62</v>
+      </c>
+      <c r="G629" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7">
+      <c r="A630" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B630" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C630" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E630" s="4">
+        <v>45742</v>
+      </c>
+      <c r="F630" s="52">
+        <f>60206.11-F637</f>
+        <v>50526.23</v>
+      </c>
+      <c r="G630" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7">
+      <c r="A631" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B631" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C631" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E631" s="4">
+        <v>45742</v>
+      </c>
+      <c r="F631" s="52">
+        <v>63361.47</v>
+      </c>
+      <c r="G631" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7">
+      <c r="A632" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B632" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C632" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E632" s="4">
+        <v>45742</v>
+      </c>
+      <c r="F632" s="78">
+        <f>83590.19-F638</f>
+        <v>73251.490000000005</v>
+      </c>
+      <c r="G632" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7">
+      <c r="A633" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B633" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C633" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E633" s="4">
+        <v>45742</v>
+      </c>
+      <c r="F633" s="52">
+        <v>194032.21</v>
+      </c>
+      <c r="G633" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7">
+      <c r="A634" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B634" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C634" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E634" s="4">
+        <v>45742</v>
+      </c>
+      <c r="F634" s="78">
+        <f>67796.22-F639</f>
+        <v>57460.12</v>
+      </c>
+      <c r="G634" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7">
+      <c r="A635" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B635" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C635" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E635" s="4">
+        <v>45742</v>
+      </c>
+      <c r="F635" s="78">
+        <f>75403.88-F640</f>
+        <v>65065.180000000008</v>
+      </c>
+      <c r="G635" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7">
+      <c r="A636" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B636" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C636" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E636" s="4">
+        <v>45742</v>
+      </c>
+      <c r="F636" s="78">
+        <f>62935.27-F641</f>
+        <v>52616.47</v>
+      </c>
+      <c r="G636" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7">
+      <c r="A637" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B637" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C637" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="E637" s="4">
+        <v>45853</v>
+      </c>
+      <c r="F637" s="52">
+        <v>9679.8799999999992</v>
+      </c>
+      <c r="G637" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7">
+      <c r="A638" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B638" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C638" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="E638" s="4">
+        <v>45853</v>
+      </c>
+      <c r="F638" s="52">
+        <v>10338.700000000001</v>
+      </c>
+      <c r="G638" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7">
+      <c r="A639" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B639" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C639" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="E639" s="4">
+        <v>45853</v>
+      </c>
+      <c r="F639" s="52">
+        <v>10336.1</v>
+      </c>
+      <c r="G639" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7">
+      <c r="A640" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B640" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C640" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="E640" s="4">
+        <v>45853</v>
+      </c>
+      <c r="F640" s="52">
+        <v>10338.700000000001</v>
+      </c>
+      <c r="G640" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7">
+      <c r="A641" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B641" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C641" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="E641" s="4">
+        <v>45853</v>
+      </c>
+      <c r="F641" s="52">
+        <v>10318.799999999999</v>
+      </c>
+      <c r="G641" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" ht="15.75">
+      <c r="A642" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B642" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E642" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F642" s="56">
+        <v>12636.98</v>
+      </c>
+      <c r="G642" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" ht="15.75">
+      <c r="A643" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B643" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E643" s="4">
+        <v>45802</v>
+      </c>
+      <c r="F643" s="57">
+        <v>13335.77</v>
+      </c>
+      <c r="G643" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" ht="15.75">
+      <c r="A644" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B644" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C644" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E644" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F644" s="57">
+        <v>19551.8</v>
+      </c>
+      <c r="G644" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" ht="15.75">
+      <c r="A645" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B645" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C645" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E645" s="4">
+        <v>45845</v>
+      </c>
+      <c r="F645" s="57">
+        <v>20598.05</v>
+      </c>
+      <c r="G645" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" ht="15.75">
+      <c r="A646" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="B646" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E646" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F646" s="80">
+        <v>9568.31</v>
+      </c>
+      <c r="G646" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" ht="15.75">
+      <c r="A647" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="B647" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E647" s="4">
+        <v>45689</v>
+      </c>
+      <c r="F647" s="80">
+        <v>10004.61</v>
+      </c>
+      <c r="G647" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" ht="15.75">
+      <c r="A648" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="B648" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E648" s="4">
+        <v>44959</v>
+      </c>
+      <c r="F648" s="57">
+        <v>20584.98</v>
+      </c>
+      <c r="G648" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" ht="15.75">
+      <c r="A649" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B649" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E649" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F649" s="57">
+        <v>61029.58</v>
+      </c>
+      <c r="G649" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" ht="15.75">
+      <c r="A650" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B650" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E650" s="4">
+        <v>45777</v>
+      </c>
+      <c r="F650" s="57">
+        <v>64372.29</v>
+      </c>
+      <c r="G650" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" ht="15.75">
+      <c r="A651" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B651" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E651" s="4">
+        <v>45896</v>
+      </c>
+      <c r="F651" s="57">
+        <v>51497.83</v>
+      </c>
+      <c r="G651" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" ht="15.75">
+      <c r="A652" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="B652" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E652" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F652" s="57">
+        <v>50537.48</v>
+      </c>
+      <c r="G652" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" ht="15.75">
+      <c r="A653" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="B653" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E653" s="4">
+        <v>45863</v>
+      </c>
+      <c r="F653" s="57">
+        <v>53241.83</v>
+      </c>
+      <c r="G653" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" ht="15.75">
+      <c r="A654" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B654" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E654" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F654" s="56">
+        <v>22331.41</v>
+      </c>
+      <c r="G654" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" ht="15.75">
+      <c r="A655" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B655" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E655" s="4">
+        <v>45702</v>
+      </c>
+      <c r="F655" s="57">
+        <v>23349.69</v>
+      </c>
+      <c r="G655" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" ht="15.75">
+      <c r="A656" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="B656" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E656" s="4">
+        <v>45274</v>
+      </c>
+      <c r="F656" s="57">
+        <v>21821.46</v>
+      </c>
+      <c r="G656" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" ht="15.75">
+      <c r="A657" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B657" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E657" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F657" s="57">
+        <v>17262.48</v>
+      </c>
+      <c r="G657" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" ht="15.75">
+      <c r="A658" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B658" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E658" s="4">
+        <v>45688</v>
+      </c>
+      <c r="F658" s="57">
+        <v>18096.48</v>
+      </c>
+      <c r="G658" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" ht="15.75">
+      <c r="A659" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="B659" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E659" s="4">
+        <v>44121</v>
+      </c>
+      <c r="F659" s="56">
+        <v>9510.4500000000007</v>
+      </c>
+      <c r="G659" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" ht="17.25">
+      <c r="A660" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="B660" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E660" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F660" s="58">
+        <v>15561.92</v>
+      </c>
+      <c r="G660" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" ht="15.75">
+      <c r="A661" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="B661" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E661" s="4">
+        <v>45959</v>
+      </c>
+      <c r="F661" s="57">
+        <v>16366.84</v>
+      </c>
+      <c r="G661" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" ht="15.75">
+      <c r="A662" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B662" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E662" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F662" s="57">
+        <v>8938.5</v>
+      </c>
+      <c r="G662" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" ht="15.75">
+      <c r="A663" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B663" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E663" s="4">
+        <v>45798</v>
+      </c>
+      <c r="F663" s="57">
+        <v>9432.77</v>
+      </c>
+      <c r="G663" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" ht="15.75">
+      <c r="A664" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="B664" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E664" s="4">
+        <v>45588</v>
+      </c>
+      <c r="F664" s="57">
+        <v>6981.66</v>
+      </c>
+      <c r="G664" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7">
+      <c r="A665" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B665" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C665" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E665" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F665" s="55">
+        <f>69671.24-F669</f>
+        <v>65295.3</v>
+      </c>
+      <c r="G665" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7">
+      <c r="A666" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B666" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C666" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E666" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F666" s="55">
+        <f>90405.47-F670</f>
+        <v>64809.64</v>
+      </c>
+      <c r="G666" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7">
+      <c r="A667" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B667" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C667" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E667" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F667" s="55">
+        <v>151059.07999999999</v>
+      </c>
+      <c r="G667" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7">
+      <c r="A668" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B668" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C668" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E668" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F668" s="78">
+        <f>67226.21-F671</f>
+        <v>58163.930000000008</v>
+      </c>
+      <c r="G668" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" ht="17.25">
+      <c r="A669" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B669" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C669" s="81" t="s">
+        <v>610</v>
+      </c>
+      <c r="E669" s="4">
+        <v>45755</v>
+      </c>
+      <c r="F669" s="82">
+        <v>4375.9399999999996</v>
+      </c>
+      <c r="G669" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7">
+      <c r="A670" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B670" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C670" s="81" t="s">
+        <v>309</v>
+      </c>
+      <c r="E670" s="4">
+        <v>45755</v>
+      </c>
+      <c r="F670">
+        <f>16644.45+8951.38</f>
+        <v>25595.83</v>
+      </c>
+      <c r="G670" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7">
+      <c r="A671" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B671" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C671" s="81" t="s">
+        <v>462</v>
+      </c>
+      <c r="E671" s="4">
+        <v>45755</v>
+      </c>
+      <c r="F671" s="52">
+        <v>9062.2800000000007</v>
+      </c>
+      <c r="G671" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7">
+      <c r="A672" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B672" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C672" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="D672" s="4">
+        <v>45849</v>
+      </c>
+      <c r="G672" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7">
+      <c r="A673" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B673" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C673" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="D673" s="4">
+        <v>45849</v>
+      </c>
+      <c r="G673" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7">
+      <c r="A674" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B674" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C674" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="D674" s="4">
+        <v>45849</v>
+      </c>
+      <c r="G674" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7">
+      <c r="A675" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B675" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C675" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="D675" s="4">
+        <v>45849</v>
+      </c>
+      <c r="G675" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7">
+      <c r="A676" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B676" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C676" s="81" t="s">
+        <v>610</v>
+      </c>
+      <c r="D676" s="4">
+        <v>45849</v>
+      </c>
+      <c r="G676" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7">
+      <c r="A677" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B677" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C677" s="81" t="s">
+        <v>309</v>
+      </c>
+      <c r="D677" s="4">
+        <v>45849</v>
+      </c>
+      <c r="G677" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7">
+      <c r="A678" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B678" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C678" s="81" t="s">
+        <v>462</v>
+      </c>
+      <c r="D678" s="4">
+        <v>45849</v>
+      </c>
+      <c r="G678" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7">
+      <c r="A679" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="B679" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C679" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E679" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F679" s="78">
+        <f>73214.4-F681</f>
+        <v>63934.969999999994</v>
+      </c>
+      <c r="G679" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7">
+      <c r="A680" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="B680" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C680" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E680" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F680">
+        <f>117476.4-F682</f>
+        <v>108845.12</v>
+      </c>
+      <c r="G680" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7">
+      <c r="A681" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="B681" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C681" s="81" t="s">
+        <v>462</v>
+      </c>
+      <c r="E681" s="4">
+        <v>45754</v>
+      </c>
+      <c r="F681" s="52">
+        <v>9279.43</v>
+      </c>
+      <c r="G681" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7">
+      <c r="A682" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="B682" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C682" s="81" t="s">
+        <v>534</v>
+      </c>
+      <c r="E682" s="4">
+        <v>45754</v>
+      </c>
+      <c r="F682" s="52">
+        <v>8631.2800000000007</v>
+      </c>
+      <c r="G682" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7">
+      <c r="A683" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B683" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C683" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E683" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F683" s="55">
+        <v>171331.65</v>
+      </c>
+      <c r="G683" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7">
+      <c r="A684" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B684" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C684" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E684" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F684" s="78">
+        <f>62741.3-F689</f>
+        <v>51567.79</v>
+      </c>
+      <c r="G684" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7">
+      <c r="A685" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B685" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C685" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E685" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F685" s="55">
+        <f>73100.29-F690</f>
+        <v>63337.51999999999</v>
+      </c>
+      <c r="G685" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7">
+      <c r="A686" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B686" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C686" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E686" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F686" s="55">
+        <f>62528.53-F691</f>
+        <v>51387.409999999996</v>
+      </c>
+      <c r="G686" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7">
+      <c r="A687" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B687" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C687" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E687" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F687" s="55">
+        <f>59734.68-F692</f>
+        <v>48597.96</v>
+      </c>
+      <c r="G687" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7">
+      <c r="A688" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B688" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C688" s="81" t="s">
+        <v>309</v>
+      </c>
+      <c r="E688" s="4">
+        <v>45748</v>
+      </c>
+      <c r="F688">
+        <f>5032.11+9761.78+11338.88</f>
+        <v>26132.769999999997</v>
+      </c>
+      <c r="G688" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7">
+      <c r="A689" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B689" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C689" s="81" t="s">
+        <v>462</v>
+      </c>
+      <c r="E689" s="4">
+        <v>45748</v>
+      </c>
+      <c r="F689" s="52">
+        <v>11173.51</v>
+      </c>
+      <c r="G689" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7">
+      <c r="A690" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B690" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C690" s="81" t="s">
+        <v>610</v>
+      </c>
+      <c r="E690" s="4">
+        <v>45748</v>
+      </c>
+      <c r="F690" s="52">
+        <v>9762.77</v>
+      </c>
+      <c r="G690" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7">
+      <c r="A691" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B691" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C691" s="81" t="s">
+        <v>462</v>
+      </c>
+      <c r="E691" s="4">
+        <v>45748</v>
+      </c>
+      <c r="F691" s="52">
+        <v>11141.12</v>
+      </c>
+      <c r="G691" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7">
+      <c r="A692" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B692" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C692" s="81" t="s">
+        <v>462</v>
+      </c>
+      <c r="E692" s="4">
+        <v>45748</v>
+      </c>
+      <c r="F692" s="52">
+        <v>11136.72</v>
+      </c>
+      <c r="G692" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7">
+      <c r="A693" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B693" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C693" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E693" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F693" s="55">
+        <f>73599.33-F703</f>
+        <v>55397.950000000004</v>
+      </c>
+      <c r="G693" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7">
+      <c r="A694" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B694" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C694" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E694" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F694" s="55">
+        <f>54534.43-F704</f>
+        <v>43916.29</v>
+      </c>
+      <c r="G694" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7">
+      <c r="A695" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B695" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C695" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E695" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F695" s="78">
+        <f>67421.29-F705</f>
+        <v>57699.049999999996</v>
+      </c>
+      <c r="G695" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7">
+      <c r="A696" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B696" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="C696" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E696" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F696">
+        <f>72493.55-F706</f>
+        <v>58530.700000000004</v>
+      </c>
+      <c r="G696" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7">
+      <c r="A697" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B697" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C697" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E697" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F697" s="78">
+        <f>72384.04-F707</f>
+        <v>62507.499999999993</v>
+      </c>
+      <c r="G697" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" ht="21.75">
+      <c r="A698" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B698" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C698" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E698" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F698" s="78">
+        <f>74341.5-F708</f>
+        <v>64152.76</v>
+      </c>
+      <c r="G698" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7">
+      <c r="A699" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B699" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C699" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E699" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F699" s="78">
+        <f>50309.67-F709</f>
+        <v>40170.25</v>
+      </c>
+      <c r="G699" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7">
+      <c r="A700" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B700" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C700" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E700" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F700" s="78">
+        <f>72801.55-F710</f>
+        <v>62855.820000000007</v>
+      </c>
+      <c r="G700" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7">
+      <c r="A701" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B701" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C701" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E701" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F701" s="55">
+        <v>312518.21999999997</v>
+      </c>
+      <c r="G701" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7">
+      <c r="A702" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B702" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C702" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E702" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F702" s="78">
+        <f>59841.2-F711</f>
+        <v>49895.159999999996</v>
+      </c>
+      <c r="G702" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7">
+      <c r="A703" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B703" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C703" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E703" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F703">
+        <f>8789.82+9411.56</f>
+        <v>18201.379999999997</v>
+      </c>
+      <c r="G703" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7">
+      <c r="A704" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B704" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C704" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E704" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F704" s="52">
+        <v>10618.14</v>
+      </c>
+      <c r="G704" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9">
+      <c r="A705" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B705" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C705" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E705" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F705" s="52">
+        <v>9722.24</v>
+      </c>
+      <c r="G705" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9">
+      <c r="A706" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B706" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="C706" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E706" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F706">
+        <f>4112.75+9850.1</f>
+        <v>13962.85</v>
+      </c>
+      <c r="G706" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9">
+      <c r="A707" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B707" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C707" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E707" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F707" s="52">
+        <v>9876.5400000000009</v>
+      </c>
+      <c r="G707" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" ht="21.75">
+      <c r="A708" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B708" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C708" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E708" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F708" s="52">
+        <v>10188.74</v>
+      </c>
+      <c r="G708" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9">
+      <c r="A709" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B709" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C709" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E709" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F709" s="52">
+        <v>10139.42</v>
+      </c>
+      <c r="G709" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9">
+      <c r="A710" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B710" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C710" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E710" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F710" s="52">
+        <v>9945.73</v>
+      </c>
+      <c r="G710" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9">
+      <c r="A711" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B711" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C711" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E711" s="4">
+        <v>45699</v>
+      </c>
+      <c r="F711" s="52">
+        <v>9946.0400000000009</v>
+      </c>
+      <c r="G711" t="s">
+        <v>592</v>
+      </c>
+      <c r="I711" s="78"/>
+    </row>
+    <row r="712" spans="1:9">
+      <c r="A712" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B712" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C712" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D712" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G712" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9">
+      <c r="A713" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B713" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C713" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D713" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G713" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9">
+      <c r="A714" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B714" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C714" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D714" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G714" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9">
+      <c r="A715" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B715" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="C715" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D715" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G715" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9">
+      <c r="A716" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B716" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C716" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D716" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G716" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" ht="21.75">
+      <c r="A717" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B717" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C717" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D717" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G717" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9">
+      <c r="A718" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B718" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C718" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D718" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G718" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9">
+      <c r="A719" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B719" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C719" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D719" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G719" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9">
+      <c r="A720" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B720" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C720" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D720" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G720" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7">
+      <c r="A721" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B721" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C721" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D721" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G721" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7">
+      <c r="A722" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B722" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C722" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D722" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G722" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7">
+      <c r="A723" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B723" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C723" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="D723" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G723" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7">
+      <c r="A724" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B724" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C724" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="D724" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G724" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7">
+      <c r="A725" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B725" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="C725" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D725" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G725" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7">
+      <c r="A726" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B726" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C726" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="D726" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G726" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" ht="21.75">
+      <c r="A727" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B727" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C727" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="D727" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G727" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7">
+      <c r="A728" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B728" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C728" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="D728" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G728" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7">
+      <c r="A729" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B729" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C729" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="D729" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G729" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7">
+      <c r="A730" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B730" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C730" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="D730" s="4">
+        <v>45785</v>
+      </c>
+      <c r="G730" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" ht="17.25">
+      <c r="A731" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B731" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E731" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F731" s="82">
+        <v>47530</v>
+      </c>
+      <c r="G731" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" ht="17.25">
+      <c r="A732" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B732" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E732" s="4">
+        <v>45709</v>
+      </c>
+      <c r="F732" s="58">
+        <v>35000</v>
+      </c>
+      <c r="G732" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" ht="15.75">
+      <c r="A733" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="B733" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E733" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F733" s="56">
+        <v>64682.87</v>
+      </c>
+      <c r="G733" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" ht="15.75">
+      <c r="A734" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="B734" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E734" s="4">
+        <v>45755</v>
+      </c>
+      <c r="F734" s="57">
+        <v>68225.67</v>
+      </c>
+      <c r="G734" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" ht="15.75">
+      <c r="A735" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="B735" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E735" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F735" s="56">
+        <v>16228.64</v>
+      </c>
+      <c r="G735" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" ht="15.75">
+      <c r="A736" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="B736" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E736" s="4">
+        <v>45755</v>
+      </c>
+      <c r="F736" s="57">
+        <v>17117.509999999998</v>
+      </c>
+      <c r="G736" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" ht="15.75">
+      <c r="A737" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="B737" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E737" s="4">
+        <v>45213</v>
+      </c>
+      <c r="F737" s="57">
+        <v>28400.01</v>
+      </c>
+      <c r="G737" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" ht="15.75">
+      <c r="A738" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="B738" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E738" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F738" s="57">
+        <f>20000+(7210.03/12)+(440.23/12)</f>
+        <v>20637.521666666667</v>
+      </c>
+      <c r="G738" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7">
+      <c r="A739" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="B739" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E739" s="4">
+        <v>44819</v>
+      </c>
+      <c r="F739">
+        <f>18079.56+3700</f>
+        <v>21779.56</v>
+      </c>
+      <c r="G739" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" ht="15.75">
+      <c r="A740" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="B740" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E740" s="4">
+        <v>45377</v>
+      </c>
+      <c r="F740" s="57">
+        <v>10009.09</v>
+      </c>
+      <c r="G740" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" ht="15.75">
+      <c r="A741" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="B741" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E741" s="4">
+        <v>45464</v>
+      </c>
+      <c r="F741" s="57">
+        <v>15149.03</v>
+      </c>
+      <c r="G741" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" ht="15.75">
+      <c r="A742" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B742" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C742" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E742" s="4">
+        <v>45367</v>
+      </c>
+      <c r="F742" s="57">
+        <v>18430.39</v>
+      </c>
+      <c r="G742" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" ht="15.75">
+      <c r="A743" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B743" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C743" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E743" s="4">
+        <v>45800</v>
+      </c>
+      <c r="F743" s="57">
+        <v>18430.39</v>
+      </c>
+      <c r="G743" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7">
+      <c r="A744" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="B744" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C744" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E744" s="4">
+        <v>45642</v>
+      </c>
+      <c r="F744">
+        <f>9500+600+(8115.76/12)+(371.52/12)</f>
+        <v>10807.273333333333</v>
+      </c>
+      <c r="G744" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" ht="15.75">
+      <c r="A745" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="B745" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E745" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F745" s="57">
+        <v>23000</v>
+      </c>
+      <c r="G745" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" ht="17.25">
+      <c r="A746" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B746" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E746" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F746" s="58">
+        <v>12135.12</v>
+      </c>
+      <c r="G746" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" ht="15.75">
+      <c r="A747" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B747" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E747" s="4">
+        <v>45849</v>
+      </c>
+      <c r="F747" s="57">
+        <v>12784.49</v>
+      </c>
+      <c r="G747" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" ht="15.75">
+      <c r="A748" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="B748" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E748" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F748" s="57">
+        <v>25000</v>
+      </c>
+      <c r="G748" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" ht="15.75">
+      <c r="A749" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="B749" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E749" s="4">
+        <v>45692</v>
+      </c>
+      <c r="F749" s="57">
+        <v>26139.97</v>
+      </c>
+      <c r="G749" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" ht="21.75">
+      <c r="A750" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="B750" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E750" s="4">
+        <v>45645</v>
+      </c>
+      <c r="F750" s="57">
+        <v>10100.200000000001</v>
+      </c>
+      <c r="G750" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" ht="15.75">
+      <c r="A751" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="B751" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E751" s="4">
+        <v>45458</v>
+      </c>
+      <c r="F751" s="56">
+        <v>20519.88</v>
+      </c>
+      <c r="G751" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" ht="15.75">
+      <c r="A752" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="B752" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E752" s="4">
+        <v>45778</v>
+      </c>
+      <c r="F752" s="56">
+        <v>21555.42</v>
+      </c>
+      <c r="G752" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" ht="15.75">
+      <c r="A753" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="B753" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E753" s="4">
+        <v>44970</v>
+      </c>
+      <c r="F753" s="57">
+        <v>18444.52</v>
+      </c>
+      <c r="G753" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" ht="15.75">
+      <c r="A754" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="B754" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E754" s="4">
+        <v>45592</v>
+      </c>
+      <c r="F754" s="57">
+        <v>12739.54</v>
+      </c>
+      <c r="G754" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" ht="15.75">
+      <c r="A755" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="B755" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E755" s="4">
+        <v>45566</v>
+      </c>
+      <c r="F755" s="57">
+        <v>53154.62</v>
+      </c>
+      <c r="G755" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" ht="15.75">
+      <c r="A756" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B756" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C756" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E756" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F756" s="56">
+        <v>23200</v>
+      </c>
+      <c r="G756" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" ht="21.75">
+      <c r="A757" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="B757" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E757" s="4">
+        <v>45612</v>
+      </c>
+      <c r="F757" s="57">
+        <f>380575.21+150862.32</f>
+        <v>531437.53</v>
+      </c>
+      <c r="G757" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" ht="21.75">
+      <c r="A758" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B758" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E758" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F758" s="57">
+        <v>21662.880000000001</v>
+      </c>
+      <c r="G758" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" ht="21.75">
+      <c r="A759" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B759" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E759" s="4">
+        <v>45870</v>
+      </c>
+      <c r="F759" s="57">
+        <v>22304.35</v>
+      </c>
+      <c r="G759" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" ht="17.25">
+      <c r="A760" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="B760" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E760" s="4">
+        <v>45658</v>
+      </c>
+      <c r="F760" s="58">
+        <v>77730.53</v>
+      </c>
+      <c r="G760" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" ht="17.25">
+      <c r="A761" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="B761" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E761" s="4">
+        <v>45748</v>
+      </c>
+      <c r="F761" s="58">
+        <v>78147.72</v>
+      </c>
+      <c r="G761" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A419:A422">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A423:A426">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A111">
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:A270">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271 A273:A299">
-    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A443:A444">
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A445:A452">
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A494">
+    <cfRule type="duplicateValues" dxfId="19" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C513:C515">
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A513:A524">
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C519:C521">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A527:A528">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A530:A531">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A533:A534">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A537:A538">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C541:C542">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A545:A546">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A549:A553">
+    <cfRule type="duplicateValues" dxfId="9" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A554:A557">
+    <cfRule type="duplicateValues" dxfId="8" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A558:A561">
+    <cfRule type="duplicateValues" dxfId="7" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A562:A566">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A567:A574">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A575:A582">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A583:A584">
+    <cfRule type="duplicateValues" dxfId="3" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A613">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A445:A452">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A693:A730">
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A494:A495">
+  <conditionalFormatting sqref="A756">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
